--- a/test-1.xlsx
+++ b/test-1.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Trang To\Desktop\quản lý dự án\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KhangBui\Documents\GitHub\Quantriduan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA5FA0D1-8A26-4117-8FB0-6D0F12B35043}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4575"/>
   </bookViews>
   <sheets>
     <sheet name="Operation Test" sheetId="1" r:id="rId1"/>
@@ -19,7 +18,7 @@
   <externalReferences>
     <externalReference r:id="rId3"/>
   </externalReferences>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,12 +34,39 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Nguyen Duc Tien</author>
   </authors>
   <commentList>
-    <comment ref="G16" authorId="0" shapeId="0" xr:uid="{7ECF0E21-4FF9-44BC-8D67-6AE4AFEBD63C}">
+    <comment ref="G14" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t>Kết quả test:
+OK / Not OK</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I14" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t>Ánh xạ tới ID tương ứng của Bug được ghi nhận trong BugList</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -53,7 +79,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H16" authorId="0" shapeId="0" xr:uid="{D77F4328-BE74-4879-868A-2F10AE9B4033}">
+    <comment ref="H16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -66,7 +92,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I16" authorId="0" shapeId="0" xr:uid="{EBFCEB26-AC3A-4953-A2F5-E2582BD64A93}">
+    <comment ref="I16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -79,7 +105,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A45" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="A45" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -93,7 +119,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G46" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="G46" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -107,7 +133,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I46" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="I46" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -120,7 +146,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G48" authorId="0" shapeId="0" xr:uid="{BB599BFC-D539-47AA-B774-1F218B2A9D84}">
+    <comment ref="G48" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -133,7 +159,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H48" authorId="0" shapeId="0" xr:uid="{23A195FE-6B8D-4879-A27B-7A9ECAAD1F5C}">
+    <comment ref="H48" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -146,7 +172,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I48" authorId="0" shapeId="0" xr:uid="{903EA87D-1C78-4BF4-9603-EC285F99F030}">
+    <comment ref="I48" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -460,7 +486,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy/m/d;@"/>
   </numFmts>
@@ -1031,9 +1057,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1130,103 +1153,10 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1255,9 +1185,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1279,10 +1206,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1360,11 +1283,114 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
-    <cellStyle name="Bình thường 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Siêu kết nối" xfId="2" builtinId="8"/>
+    <cellStyle name="Bình thường 2" xfId="1"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -1398,7 +1424,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="2"/>
       <tableStyleElement type="headerRow" dxfId="1"/>
     </tableStyle>
@@ -1799,11 +1825,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B32" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46:I46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1931,2235 +1957,2296 @@
       <c r="K6" s="3"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="91" t="s">
+      <c r="A7" s="157" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="91"/>
-      <c r="C7" s="91"/>
-      <c r="D7" s="91"/>
-      <c r="E7" s="91"/>
-      <c r="F7" s="91"/>
-      <c r="G7" s="91"/>
-      <c r="H7" s="91"/>
-      <c r="I7" s="91"/>
-      <c r="J7" s="91"/>
+      <c r="B7" s="157"/>
+      <c r="C7" s="157"/>
+      <c r="D7" s="157"/>
+      <c r="E7" s="157"/>
+      <c r="F7" s="157"/>
+      <c r="G7" s="157"/>
+      <c r="H7" s="157"/>
+      <c r="I7" s="157"/>
+      <c r="J7" s="157"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="92" t="s">
+      <c r="A8" s="149" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="93"/>
-      <c r="C8" s="92" t="s">
+      <c r="B8" s="150"/>
+      <c r="C8" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="93"/>
-      <c r="E8" s="92" t="s">
+      <c r="D8" s="150"/>
+      <c r="E8" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="93"/>
-      <c r="G8" s="94" t="s">
+      <c r="F8" s="150"/>
+      <c r="G8" s="149" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="94"/>
-      <c r="I8" s="30" t="s">
+      <c r="H8" s="150"/>
+      <c r="I8" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="J8" s="31" t="s">
+      <c r="J8" s="30" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="71" t="s">
+      <c r="A9" s="132" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="72"/>
-      <c r="C9" s="77" t="s">
+      <c r="B9" s="133"/>
+      <c r="C9" s="138" t="s">
         <v>70</v>
       </c>
-      <c r="D9" s="78"/>
-      <c r="E9" s="32" t="s">
+      <c r="D9" s="139"/>
+      <c r="E9" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="33"/>
-      <c r="G9" s="88" t="s">
+      <c r="F9" s="32"/>
+      <c r="G9" s="155" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="89"/>
-      <c r="I9" s="34" t="s">
+      <c r="H9" s="156"/>
+      <c r="I9" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="J9" s="85"/>
+      <c r="J9" s="146"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="73"/>
-      <c r="B10" s="74"/>
-      <c r="C10" s="79"/>
-      <c r="D10" s="80"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="37" t="s">
+      <c r="A10" s="134"/>
+      <c r="B10" s="135"/>
+      <c r="C10" s="140"/>
+      <c r="D10" s="141"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="37" t="s">
+      <c r="H10" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="I10" s="37" t="s">
+      <c r="I10" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="86"/>
+      <c r="J10" s="147"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="73"/>
-      <c r="B11" s="74"/>
-      <c r="C11" s="79"/>
-      <c r="D11" s="80"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="38" t="s">
+      <c r="A11" s="134"/>
+      <c r="B11" s="135"/>
+      <c r="C11" s="140"/>
+      <c r="D11" s="141"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="H11" s="38" t="s">
+      <c r="H11" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="I11" s="38" t="s">
+      <c r="I11" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="J11" s="86"/>
+      <c r="J11" s="147"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="73"/>
-      <c r="B12" s="74"/>
-      <c r="C12" s="79"/>
-      <c r="D12" s="80"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="37" t="s">
+      <c r="A12" s="134"/>
+      <c r="B12" s="135"/>
+      <c r="C12" s="140"/>
+      <c r="D12" s="141"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="37" t="s">
+      <c r="H12" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="I12" s="37"/>
-      <c r="J12" s="86"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="147"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="75"/>
-      <c r="B13" s="76"/>
-      <c r="C13" s="81"/>
-      <c r="D13" s="82"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="38">
+      <c r="A13" s="136"/>
+      <c r="B13" s="137"/>
+      <c r="C13" s="142"/>
+      <c r="D13" s="143"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="37">
         <v>43586</v>
       </c>
-      <c r="H13" s="38">
+      <c r="H13" s="37">
         <v>43587</v>
       </c>
-      <c r="I13" s="41"/>
-      <c r="J13" s="87"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="148"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="69" t="s">
+      <c r="A14" s="152" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="70"/>
-      <c r="C14" s="69" t="s">
+      <c r="B14" s="153"/>
+      <c r="C14" s="152" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="70"/>
-      <c r="E14" s="69" t="s">
+      <c r="D14" s="153"/>
+      <c r="E14" s="152" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="70"/>
-      <c r="G14" s="90" t="s">
+      <c r="F14" s="153"/>
+      <c r="G14" s="158" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="90"/>
-      <c r="I14" s="42" t="s">
+      <c r="H14" s="159"/>
+      <c r="I14" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="J14" s="43" t="s">
+      <c r="J14" s="42" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="71" t="s">
+      <c r="A15" s="132" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="72"/>
-      <c r="C15" s="77" t="s">
+      <c r="B15" s="133"/>
+      <c r="C15" s="138" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="78"/>
-      <c r="E15" s="32" t="s">
+      <c r="D15" s="139"/>
+      <c r="E15" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="33"/>
-      <c r="G15" s="83" t="s">
+      <c r="F15" s="32"/>
+      <c r="G15" s="144" t="s">
         <v>42</v>
       </c>
-      <c r="H15" s="84"/>
-      <c r="I15" s="44"/>
-      <c r="J15" s="85"/>
+      <c r="H15" s="145"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="146"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="73"/>
-      <c r="B16" s="74"/>
-      <c r="C16" s="79"/>
-      <c r="D16" s="80"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="62" t="s">
+      <c r="A16" s="134"/>
+      <c r="B16" s="135"/>
+      <c r="C16" s="140"/>
+      <c r="D16" s="141"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="H16" s="62" t="s">
+      <c r="H16" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="I16" s="62" t="s">
+      <c r="I16" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="J16" s="86"/>
+      <c r="J16" s="147"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="73"/>
-      <c r="B17" s="74"/>
-      <c r="C17" s="79"/>
-      <c r="D17" s="80"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="38" t="s">
+      <c r="A17" s="134"/>
+      <c r="B17" s="135"/>
+      <c r="C17" s="140"/>
+      <c r="D17" s="141"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="H17" s="38"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="86"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="147"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="73"/>
-      <c r="B18" s="74"/>
-      <c r="C18" s="79"/>
-      <c r="D18" s="80"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="42" t="s">
+      <c r="A18" s="134"/>
+      <c r="B18" s="135"/>
+      <c r="C18" s="140"/>
+      <c r="D18" s="141"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="H18" s="42" t="s">
+      <c r="H18" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="I18" s="42"/>
-      <c r="J18" s="86"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="147"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="75"/>
-      <c r="B19" s="76"/>
-      <c r="C19" s="81"/>
-      <c r="D19" s="82"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="38">
+      <c r="A19" s="136"/>
+      <c r="B19" s="137"/>
+      <c r="C19" s="142"/>
+      <c r="D19" s="143"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="37">
         <v>43588</v>
       </c>
-      <c r="H19" s="38"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="86"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="147"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="69" t="s">
+      <c r="A20" s="152" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="70"/>
-      <c r="C20" s="69" t="s">
+      <c r="B20" s="153"/>
+      <c r="C20" s="152" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="70"/>
-      <c r="E20" s="69" t="s">
+      <c r="D20" s="153"/>
+      <c r="E20" s="152" t="s">
         <v>13</v>
       </c>
-      <c r="F20" s="70"/>
-      <c r="G20" s="90" t="s">
+      <c r="F20" s="153"/>
+      <c r="G20" s="154" t="s">
         <v>14</v>
       </c>
-      <c r="H20" s="90"/>
-      <c r="I20" s="42" t="s">
+      <c r="H20" s="154"/>
+      <c r="I20" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J20" s="43" t="s">
+      <c r="J20" s="42" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="21">
-      <c r="A21" s="71" t="s">
+      <c r="A21" s="132" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="72"/>
-      <c r="C21" s="77" t="s">
+      <c r="B21" s="133"/>
+      <c r="C21" s="138" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="78"/>
-      <c r="E21" s="32" t="s">
+      <c r="D21" s="139"/>
+      <c r="E21" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="F21" s="33"/>
-      <c r="G21" s="83" t="s">
+      <c r="F21" s="32"/>
+      <c r="G21" s="144" t="s">
         <v>23</v>
       </c>
-      <c r="H21" s="84"/>
-      <c r="I21" s="44" t="s">
+      <c r="H21" s="145"/>
+      <c r="I21" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="J21" s="85"/>
+      <c r="J21" s="146"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="73"/>
-      <c r="B22" s="74"/>
-      <c r="C22" s="79"/>
-      <c r="D22" s="80"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="42" t="s">
+      <c r="A22" s="134"/>
+      <c r="B22" s="135"/>
+      <c r="C22" s="140"/>
+      <c r="D22" s="141"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="H22" s="42" t="s">
+      <c r="H22" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="I22" s="42" t="s">
+      <c r="I22" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="J22" s="86"/>
+      <c r="J22" s="147"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="73"/>
-      <c r="B23" s="74"/>
-      <c r="C23" s="79"/>
-      <c r="D23" s="80"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="38" t="s">
+      <c r="A23" s="134"/>
+      <c r="B23" s="135"/>
+      <c r="C23" s="140"/>
+      <c r="D23" s="141"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="H23" s="38" t="s">
+      <c r="H23" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="I23" s="38" t="s">
+      <c r="I23" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="J23" s="86"/>
+      <c r="J23" s="147"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="73"/>
-      <c r="B24" s="74"/>
-      <c r="C24" s="79"/>
-      <c r="D24" s="80"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="42" t="s">
+      <c r="A24" s="134"/>
+      <c r="B24" s="135"/>
+      <c r="C24" s="140"/>
+      <c r="D24" s="141"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="H24" s="42" t="s">
+      <c r="H24" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="I24" s="42"/>
-      <c r="J24" s="86"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="147"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="75"/>
-      <c r="B25" s="76"/>
-      <c r="C25" s="81"/>
-      <c r="D25" s="82"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="38">
+      <c r="A25" s="136"/>
+      <c r="B25" s="137"/>
+      <c r="C25" s="142"/>
+      <c r="D25" s="143"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="37">
         <v>43589</v>
       </c>
-      <c r="H25" s="38">
+      <c r="H25" s="37">
         <v>43590</v>
       </c>
-      <c r="I25" s="34"/>
-      <c r="J25" s="86"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="147"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="69" t="s">
+      <c r="A26" s="152" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="70"/>
-      <c r="C26" s="69" t="s">
+      <c r="B26" s="153"/>
+      <c r="C26" s="152" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="70"/>
-      <c r="E26" s="69" t="s">
+      <c r="D26" s="153"/>
+      <c r="E26" s="152" t="s">
         <v>13</v>
       </c>
-      <c r="F26" s="70"/>
-      <c r="G26" s="90" t="s">
+      <c r="F26" s="153"/>
+      <c r="G26" s="154" t="s">
         <v>14</v>
       </c>
-      <c r="H26" s="90"/>
-      <c r="I26" s="42" t="s">
+      <c r="H26" s="154"/>
+      <c r="I26" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J26" s="43" t="s">
+      <c r="J26" s="42" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="71" t="s">
+      <c r="A27" s="132" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="72"/>
-      <c r="C27" s="77" t="s">
+      <c r="B27" s="133"/>
+      <c r="C27" s="138" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="78"/>
-      <c r="E27" s="32" t="s">
+      <c r="D27" s="139"/>
+      <c r="E27" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="F27" s="33"/>
-      <c r="G27" s="83" t="s">
+      <c r="F27" s="32"/>
+      <c r="G27" s="144" t="s">
         <v>42</v>
       </c>
-      <c r="H27" s="84"/>
-      <c r="I27" s="44"/>
-      <c r="J27" s="85"/>
+      <c r="H27" s="145"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="146"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="73"/>
-      <c r="B28" s="74"/>
-      <c r="C28" s="79"/>
-      <c r="D28" s="80"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="42" t="s">
+      <c r="A28" s="134"/>
+      <c r="B28" s="135"/>
+      <c r="C28" s="140"/>
+      <c r="D28" s="141"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="H28" s="42" t="s">
+      <c r="H28" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="I28" s="42" t="s">
+      <c r="I28" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="J28" s="86"/>
+      <c r="J28" s="147"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="73"/>
-      <c r="B29" s="74"/>
-      <c r="C29" s="79"/>
-      <c r="D29" s="80"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="38" t="s">
+      <c r="A29" s="134"/>
+      <c r="B29" s="135"/>
+      <c r="C29" s="140"/>
+      <c r="D29" s="141"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="H29" s="38"/>
-      <c r="I29" s="34"/>
-      <c r="J29" s="86"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="33"/>
+      <c r="J29" s="147"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="73"/>
-      <c r="B30" s="74"/>
-      <c r="C30" s="79"/>
-      <c r="D30" s="80"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="42" t="s">
+      <c r="A30" s="134"/>
+      <c r="B30" s="135"/>
+      <c r="C30" s="140"/>
+      <c r="D30" s="141"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="H30" s="42" t="s">
+      <c r="H30" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="I30" s="42"/>
-      <c r="J30" s="86"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="147"/>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="75"/>
-      <c r="B31" s="76"/>
-      <c r="C31" s="81"/>
-      <c r="D31" s="82"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="40"/>
-      <c r="G31" s="38">
+      <c r="A31" s="136"/>
+      <c r="B31" s="137"/>
+      <c r="C31" s="142"/>
+      <c r="D31" s="143"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="37">
         <v>43592</v>
       </c>
-      <c r="H31" s="38"/>
-      <c r="I31" s="34"/>
-      <c r="J31" s="86"/>
+      <c r="H31" s="37"/>
+      <c r="I31" s="33"/>
+      <c r="J31" s="147"/>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="69" t="s">
+      <c r="A32" s="152" t="s">
         <v>22</v>
       </c>
-      <c r="B32" s="70"/>
-      <c r="C32" s="69" t="s">
+      <c r="B32" s="153"/>
+      <c r="C32" s="152" t="s">
         <v>12</v>
       </c>
-      <c r="D32" s="70"/>
-      <c r="E32" s="69" t="s">
+      <c r="D32" s="153"/>
+      <c r="E32" s="152" t="s">
         <v>13</v>
       </c>
-      <c r="F32" s="70"/>
-      <c r="G32" s="90" t="s">
+      <c r="F32" s="153"/>
+      <c r="G32" s="154" t="s">
         <v>14</v>
       </c>
-      <c r="H32" s="90"/>
-      <c r="I32" s="42" t="s">
+      <c r="H32" s="154"/>
+      <c r="I32" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J32" s="43" t="s">
+      <c r="J32" s="42" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="15" customHeight="1">
-      <c r="A33" s="71" t="s">
+      <c r="A33" s="132" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="72"/>
-      <c r="C33" s="77" t="s">
+      <c r="B33" s="133"/>
+      <c r="C33" s="138" t="s">
         <v>37</v>
       </c>
-      <c r="D33" s="78"/>
-      <c r="E33" s="32" t="s">
+      <c r="D33" s="139"/>
+      <c r="E33" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="F33" s="33"/>
-      <c r="G33" s="83" t="s">
+      <c r="F33" s="32"/>
+      <c r="G33" s="144" t="s">
         <v>42</v>
       </c>
-      <c r="H33" s="84"/>
-      <c r="I33" s="44"/>
-      <c r="J33" s="85"/>
+      <c r="H33" s="145"/>
+      <c r="I33" s="43"/>
+      <c r="J33" s="146"/>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="73"/>
-      <c r="B34" s="74"/>
-      <c r="C34" s="79"/>
-      <c r="D34" s="80"/>
-      <c r="E34" s="35"/>
-      <c r="F34" s="36"/>
-      <c r="G34" s="42" t="s">
+      <c r="A34" s="134"/>
+      <c r="B34" s="135"/>
+      <c r="C34" s="140"/>
+      <c r="D34" s="141"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="H34" s="42" t="s">
+      <c r="H34" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="I34" s="42" t="s">
+      <c r="I34" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="J34" s="86"/>
+      <c r="J34" s="147"/>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="73"/>
-      <c r="B35" s="74"/>
-      <c r="C35" s="79"/>
-      <c r="D35" s="80"/>
-      <c r="E35" s="35"/>
-      <c r="F35" s="36"/>
-      <c r="G35" s="38" t="s">
+      <c r="A35" s="134"/>
+      <c r="B35" s="135"/>
+      <c r="C35" s="140"/>
+      <c r="D35" s="141"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="H35" s="38"/>
-      <c r="I35" s="34"/>
-      <c r="J35" s="86"/>
+      <c r="H35" s="37"/>
+      <c r="I35" s="33"/>
+      <c r="J35" s="147"/>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="73"/>
-      <c r="B36" s="74"/>
-      <c r="C36" s="79"/>
-      <c r="D36" s="80"/>
-      <c r="E36" s="35"/>
-      <c r="F36" s="36"/>
-      <c r="G36" s="42" t="s">
+      <c r="A36" s="134"/>
+      <c r="B36" s="135"/>
+      <c r="C36" s="140"/>
+      <c r="D36" s="141"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="H36" s="42" t="s">
+      <c r="H36" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="I36" s="42"/>
-      <c r="J36" s="86"/>
+      <c r="I36" s="41"/>
+      <c r="J36" s="147"/>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="75"/>
-      <c r="B37" s="76"/>
-      <c r="C37" s="81"/>
-      <c r="D37" s="82"/>
-      <c r="E37" s="39"/>
-      <c r="F37" s="40"/>
-      <c r="G37" s="38">
+      <c r="A37" s="136"/>
+      <c r="B37" s="137"/>
+      <c r="C37" s="142"/>
+      <c r="D37" s="143"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="39"/>
+      <c r="G37" s="37">
         <v>43593</v>
       </c>
-      <c r="H37" s="38"/>
-      <c r="I37" s="34"/>
-      <c r="J37" s="86"/>
+      <c r="H37" s="37"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="147"/>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="69" t="s">
+      <c r="A38" s="152" t="s">
         <v>22</v>
       </c>
-      <c r="B38" s="70"/>
-      <c r="C38" s="69" t="s">
+      <c r="B38" s="153"/>
+      <c r="C38" s="152" t="s">
         <v>12</v>
       </c>
-      <c r="D38" s="70"/>
-      <c r="E38" s="69" t="s">
+      <c r="D38" s="153"/>
+      <c r="E38" s="152" t="s">
         <v>13</v>
       </c>
-      <c r="F38" s="70"/>
-      <c r="G38" s="90" t="s">
+      <c r="F38" s="153"/>
+      <c r="G38" s="154" t="s">
         <v>14</v>
       </c>
-      <c r="H38" s="90"/>
-      <c r="I38" s="42" t="s">
+      <c r="H38" s="154"/>
+      <c r="I38" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J38" s="43" t="s">
+      <c r="J38" s="42" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="15" customHeight="1">
-      <c r="A39" s="71" t="s">
+      <c r="A39" s="132" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="72"/>
-      <c r="C39" s="77" t="s">
+      <c r="B39" s="133"/>
+      <c r="C39" s="138" t="s">
         <v>37</v>
       </c>
-      <c r="D39" s="78"/>
-      <c r="E39" s="32" t="s">
+      <c r="D39" s="139"/>
+      <c r="E39" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="F39" s="33"/>
-      <c r="G39" s="83" t="s">
+      <c r="F39" s="32"/>
+      <c r="G39" s="144" t="s">
         <v>42</v>
       </c>
-      <c r="H39" s="84"/>
-      <c r="I39" s="44"/>
-      <c r="J39" s="85"/>
+      <c r="H39" s="145"/>
+      <c r="I39" s="43"/>
+      <c r="J39" s="146"/>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="73"/>
-      <c r="B40" s="74"/>
-      <c r="C40" s="79"/>
-      <c r="D40" s="80"/>
-      <c r="E40" s="35"/>
-      <c r="F40" s="36"/>
-      <c r="G40" s="42" t="s">
+      <c r="A40" s="134"/>
+      <c r="B40" s="135"/>
+      <c r="C40" s="140"/>
+      <c r="D40" s="141"/>
+      <c r="E40" s="34"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="H40" s="42" t="s">
+      <c r="H40" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="I40" s="42" t="s">
+      <c r="I40" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="J40" s="86"/>
+      <c r="J40" s="147"/>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="73"/>
-      <c r="B41" s="74"/>
-      <c r="C41" s="79"/>
-      <c r="D41" s="80"/>
-      <c r="E41" s="35"/>
-      <c r="F41" s="36"/>
-      <c r="G41" s="38" t="s">
+      <c r="A41" s="134"/>
+      <c r="B41" s="135"/>
+      <c r="C41" s="140"/>
+      <c r="D41" s="141"/>
+      <c r="E41" s="34"/>
+      <c r="F41" s="35"/>
+      <c r="G41" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="H41" s="38"/>
-      <c r="I41" s="34"/>
-      <c r="J41" s="86"/>
+      <c r="H41" s="37"/>
+      <c r="I41" s="33"/>
+      <c r="J41" s="147"/>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" s="73"/>
-      <c r="B42" s="74"/>
-      <c r="C42" s="79"/>
-      <c r="D42" s="80"/>
-      <c r="E42" s="35"/>
-      <c r="F42" s="36"/>
-      <c r="G42" s="42" t="s">
+      <c r="A42" s="134"/>
+      <c r="B42" s="135"/>
+      <c r="C42" s="140"/>
+      <c r="D42" s="141"/>
+      <c r="E42" s="34"/>
+      <c r="F42" s="35"/>
+      <c r="G42" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="H42" s="42" t="s">
+      <c r="H42" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="I42" s="42"/>
-      <c r="J42" s="86"/>
+      <c r="I42" s="41"/>
+      <c r="J42" s="147"/>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="75"/>
-      <c r="B43" s="76"/>
-      <c r="C43" s="81"/>
-      <c r="D43" s="82"/>
-      <c r="E43" s="39"/>
-      <c r="F43" s="40"/>
-      <c r="G43" s="38">
+      <c r="A43" s="136"/>
+      <c r="B43" s="137"/>
+      <c r="C43" s="142"/>
+      <c r="D43" s="143"/>
+      <c r="E43" s="38"/>
+      <c r="F43" s="39"/>
+      <c r="G43" s="37">
         <v>43597</v>
       </c>
-      <c r="H43" s="38"/>
-      <c r="I43" s="34"/>
-      <c r="J43" s="86"/>
+      <c r="H43" s="37"/>
+      <c r="I43" s="33"/>
+      <c r="J43" s="147"/>
     </row>
     <row r="44" spans="1:10" ht="21" customHeight="1">
-      <c r="A44" s="65" t="s">
+      <c r="A44" s="160" t="s">
         <v>25</v>
       </c>
-      <c r="B44" s="66"/>
-      <c r="C44" s="57"/>
-      <c r="D44" s="57"/>
-      <c r="E44" s="57"/>
-      <c r="F44" s="57"/>
-      <c r="G44" s="57"/>
-      <c r="H44" s="57"/>
-      <c r="I44" s="57"/>
-      <c r="J44" s="58"/>
+      <c r="B44" s="161"/>
+      <c r="C44" s="56"/>
+      <c r="D44" s="56"/>
+      <c r="E44" s="56"/>
+      <c r="F44" s="56"/>
+      <c r="G44" s="56"/>
+      <c r="H44" s="56"/>
+      <c r="I44" s="56"/>
+      <c r="J44" s="57"/>
     </row>
     <row r="45" spans="1:10" ht="31.5" customHeight="1">
-      <c r="A45" s="67" t="s">
+      <c r="A45" s="162" t="s">
         <v>26</v>
       </c>
-      <c r="B45" s="68"/>
-      <c r="C45" s="68"/>
-      <c r="D45" s="59"/>
-      <c r="E45" s="59"/>
-      <c r="F45" s="59"/>
-      <c r="G45" s="59"/>
-      <c r="H45" s="59"/>
-      <c r="I45" s="59"/>
-      <c r="J45" s="60"/>
+      <c r="B45" s="163"/>
+      <c r="C45" s="163"/>
+      <c r="D45" s="58"/>
+      <c r="E45" s="58"/>
+      <c r="F45" s="58"/>
+      <c r="G45" s="58"/>
+      <c r="H45" s="58"/>
+      <c r="I45" s="58"/>
+      <c r="J45" s="59"/>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="69" t="s">
+      <c r="A46" s="152" t="s">
         <v>22</v>
       </c>
-      <c r="B46" s="70"/>
-      <c r="C46" s="47" t="s">
+      <c r="B46" s="153"/>
+      <c r="C46" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="D46" s="48"/>
-      <c r="E46" s="47" t="s">
+      <c r="D46" s="47"/>
+      <c r="E46" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="F46" s="48"/>
-      <c r="G46" s="63" t="s">
+      <c r="F46" s="47"/>
+      <c r="G46" s="158" t="s">
         <v>14</v>
       </c>
-      <c r="H46" s="64"/>
-      <c r="I46" s="42" t="s">
+      <c r="H46" s="159"/>
+      <c r="I46" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J46" s="42" t="s">
+      <c r="J46" s="41" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="31.5">
-      <c r="A47" s="61" t="s">
+      <c r="A47" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="B47" s="49"/>
-      <c r="C47" s="32" t="s">
+      <c r="B47" s="48"/>
+      <c r="C47" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="D47" s="33"/>
-      <c r="E47" s="32" t="s">
+      <c r="D47" s="32"/>
+      <c r="E47" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="F47" s="33"/>
-      <c r="G47" s="83" t="s">
+      <c r="F47" s="32"/>
+      <c r="G47" s="144" t="s">
         <v>23</v>
       </c>
-      <c r="H47" s="84"/>
-      <c r="I47" s="44" t="s">
+      <c r="H47" s="145"/>
+      <c r="I47" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="J47" s="50"/>
+      <c r="J47" s="49"/>
     </row>
     <row r="48" spans="1:10">
-      <c r="A48" s="51"/>
-      <c r="B48" s="52"/>
-      <c r="C48" s="35"/>
-      <c r="D48" s="36"/>
-      <c r="E48" s="35"/>
-      <c r="F48" s="36"/>
-      <c r="G48" s="62" t="s">
+      <c r="A48" s="50"/>
+      <c r="B48" s="51"/>
+      <c r="C48" s="34"/>
+      <c r="D48" s="35"/>
+      <c r="E48" s="34"/>
+      <c r="F48" s="35"/>
+      <c r="G48" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="H48" s="62" t="s">
+      <c r="H48" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="I48" s="62" t="s">
+      <c r="I48" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="J48" s="53"/>
+      <c r="J48" s="52"/>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="51"/>
-      <c r="B49" s="52"/>
-      <c r="C49" s="35"/>
-      <c r="D49" s="36"/>
-      <c r="E49" s="35"/>
-      <c r="F49" s="36"/>
-      <c r="G49" s="38" t="s">
+      <c r="A49" s="50"/>
+      <c r="B49" s="51"/>
+      <c r="C49" s="34"/>
+      <c r="D49" s="35"/>
+      <c r="E49" s="34"/>
+      <c r="F49" s="35"/>
+      <c r="G49" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="H49" s="38" t="s">
+      <c r="H49" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="I49" s="38" t="s">
+      <c r="I49" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="J49" s="53"/>
+      <c r="J49" s="52"/>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="51"/>
-      <c r="B50" s="52"/>
-      <c r="C50" s="35"/>
-      <c r="D50" s="36"/>
-      <c r="E50" s="35"/>
-      <c r="F50" s="36"/>
-      <c r="G50" s="42" t="s">
+      <c r="A50" s="50"/>
+      <c r="B50" s="51"/>
+      <c r="C50" s="34"/>
+      <c r="D50" s="35"/>
+      <c r="E50" s="34"/>
+      <c r="F50" s="35"/>
+      <c r="G50" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="H50" s="42" t="s">
+      <c r="H50" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="I50" s="42"/>
-      <c r="J50" s="53"/>
+      <c r="I50" s="41"/>
+      <c r="J50" s="52"/>
     </row>
     <row r="51" spans="1:10">
-      <c r="A51" s="54"/>
-      <c r="B51" s="55"/>
-      <c r="C51" s="39"/>
-      <c r="D51" s="40"/>
-      <c r="E51" s="39"/>
-      <c r="F51" s="40"/>
-      <c r="G51" s="38">
+      <c r="A51" s="53"/>
+      <c r="B51" s="54"/>
+      <c r="C51" s="38"/>
+      <c r="D51" s="39"/>
+      <c r="E51" s="38"/>
+      <c r="F51" s="39"/>
+      <c r="G51" s="37">
         <v>43355</v>
       </c>
-      <c r="H51" s="38">
+      <c r="H51" s="37">
         <v>43385</v>
       </c>
-      <c r="I51" s="34"/>
-      <c r="J51" s="56"/>
+      <c r="I51" s="33"/>
+      <c r="J51" s="55"/>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="92" t="s">
+      <c r="A52" s="149" t="s">
         <v>11</v>
       </c>
-      <c r="B52" s="93"/>
-      <c r="C52" s="92" t="s">
+      <c r="B52" s="150"/>
+      <c r="C52" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="D52" s="93"/>
-      <c r="E52" s="92" t="s">
+      <c r="D52" s="150"/>
+      <c r="E52" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="F52" s="93"/>
-      <c r="G52" s="95" t="s">
+      <c r="F52" s="150"/>
+      <c r="G52" s="151" t="s">
         <v>14</v>
       </c>
-      <c r="H52" s="95"/>
-      <c r="I52" s="37" t="s">
+      <c r="H52" s="151"/>
+      <c r="I52" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="J52" s="46" t="s">
+      <c r="J52" s="45" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="71" t="s">
+      <c r="A53" s="132" t="s">
         <v>47</v>
       </c>
-      <c r="B53" s="72"/>
-      <c r="C53" s="77" t="s">
+      <c r="B53" s="133"/>
+      <c r="C53" s="138" t="s">
         <v>48</v>
       </c>
-      <c r="D53" s="78"/>
-      <c r="E53" s="77" t="s">
+      <c r="D53" s="139"/>
+      <c r="E53" s="138" t="s">
         <v>49</v>
       </c>
-      <c r="F53" s="78"/>
-      <c r="G53" s="83" t="s">
+      <c r="F53" s="139"/>
+      <c r="G53" s="144" t="s">
         <v>23</v>
       </c>
-      <c r="H53" s="84"/>
-      <c r="I53" s="44" t="s">
+      <c r="H53" s="145"/>
+      <c r="I53" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="J53" s="85"/>
+      <c r="J53" s="146"/>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="73"/>
-      <c r="B54" s="74"/>
-      <c r="C54" s="79"/>
-      <c r="D54" s="80"/>
-      <c r="E54" s="79"/>
-      <c r="F54" s="80"/>
-      <c r="G54" s="37" t="s">
+      <c r="A54" s="134"/>
+      <c r="B54" s="135"/>
+      <c r="C54" s="140"/>
+      <c r="D54" s="141"/>
+      <c r="E54" s="140"/>
+      <c r="F54" s="141"/>
+      <c r="G54" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="H54" s="37" t="s">
+      <c r="H54" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="I54" s="37" t="s">
+      <c r="I54" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="J54" s="86"/>
+      <c r="J54" s="147"/>
     </row>
     <row r="55" spans="1:10">
-      <c r="A55" s="73"/>
-      <c r="B55" s="74"/>
-      <c r="C55" s="79"/>
-      <c r="D55" s="80"/>
-      <c r="E55" s="79"/>
-      <c r="F55" s="80"/>
-      <c r="G55" s="38" t="s">
+      <c r="A55" s="134"/>
+      <c r="B55" s="135"/>
+      <c r="C55" s="140"/>
+      <c r="D55" s="141"/>
+      <c r="E55" s="140"/>
+      <c r="F55" s="141"/>
+      <c r="G55" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="H55" s="38" t="s">
+      <c r="H55" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="I55" s="38" t="s">
+      <c r="I55" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="J55" s="86"/>
+      <c r="J55" s="147"/>
     </row>
     <row r="56" spans="1:10">
-      <c r="A56" s="73"/>
-      <c r="B56" s="74"/>
-      <c r="C56" s="79"/>
-      <c r="D56" s="80"/>
-      <c r="E56" s="79"/>
-      <c r="F56" s="80"/>
-      <c r="G56" s="37" t="s">
+      <c r="A56" s="134"/>
+      <c r="B56" s="135"/>
+      <c r="C56" s="140"/>
+      <c r="D56" s="141"/>
+      <c r="E56" s="140"/>
+      <c r="F56" s="141"/>
+      <c r="G56" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="H56" s="37" t="s">
+      <c r="H56" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="I56" s="37"/>
-      <c r="J56" s="86"/>
+      <c r="I56" s="36"/>
+      <c r="J56" s="147"/>
     </row>
     <row r="57" spans="1:10">
-      <c r="A57" s="75"/>
-      <c r="B57" s="76"/>
-      <c r="C57" s="81"/>
-      <c r="D57" s="82"/>
-      <c r="E57" s="81"/>
-      <c r="F57" s="82"/>
-      <c r="G57" s="38">
+      <c r="A57" s="136"/>
+      <c r="B57" s="137"/>
+      <c r="C57" s="142"/>
+      <c r="D57" s="143"/>
+      <c r="E57" s="142"/>
+      <c r="F57" s="143"/>
+      <c r="G57" s="37">
         <v>43506</v>
       </c>
-      <c r="H57" s="38">
+      <c r="H57" s="37">
         <v>43508</v>
       </c>
-      <c r="I57" s="34"/>
-      <c r="J57" s="87"/>
+      <c r="I57" s="33"/>
+      <c r="J57" s="148"/>
     </row>
     <row r="58" spans="1:10">
-      <c r="A58" s="92" t="s">
+      <c r="A58" s="149" t="s">
         <v>11</v>
       </c>
-      <c r="B58" s="93"/>
-      <c r="C58" s="92" t="s">
+      <c r="B58" s="150"/>
+      <c r="C58" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="D58" s="93"/>
-      <c r="E58" s="92" t="s">
+      <c r="D58" s="150"/>
+      <c r="E58" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="F58" s="93"/>
-      <c r="G58" s="95" t="s">
+      <c r="F58" s="150"/>
+      <c r="G58" s="151" t="s">
         <v>14</v>
       </c>
-      <c r="H58" s="95"/>
-      <c r="I58" s="37" t="s">
+      <c r="H58" s="151"/>
+      <c r="I58" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="J58" s="46" t="s">
+      <c r="J58" s="45" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="15" customHeight="1">
-      <c r="A59" s="71" t="s">
+      <c r="A59" s="132" t="s">
         <v>47</v>
       </c>
-      <c r="B59" s="72"/>
-      <c r="C59" s="77" t="s">
+      <c r="B59" s="133"/>
+      <c r="C59" s="138" t="s">
         <v>48</v>
       </c>
-      <c r="D59" s="78"/>
-      <c r="E59" s="77" t="s">
+      <c r="D59" s="139"/>
+      <c r="E59" s="138" t="s">
         <v>50</v>
       </c>
-      <c r="F59" s="78"/>
-      <c r="G59" s="83" t="s">
+      <c r="F59" s="139"/>
+      <c r="G59" s="144" t="s">
         <v>42</v>
       </c>
-      <c r="H59" s="84"/>
-      <c r="I59" s="44"/>
-      <c r="J59" s="85"/>
+      <c r="H59" s="145"/>
+      <c r="I59" s="43"/>
+      <c r="J59" s="146"/>
     </row>
     <row r="60" spans="1:10" ht="15" customHeight="1">
-      <c r="A60" s="73"/>
-      <c r="B60" s="74"/>
-      <c r="C60" s="79"/>
-      <c r="D60" s="80"/>
-      <c r="E60" s="79"/>
-      <c r="F60" s="80"/>
-      <c r="G60" s="37" t="s">
+      <c r="A60" s="134"/>
+      <c r="B60" s="135"/>
+      <c r="C60" s="140"/>
+      <c r="D60" s="141"/>
+      <c r="E60" s="140"/>
+      <c r="F60" s="141"/>
+      <c r="G60" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="H60" s="37" t="s">
+      <c r="H60" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="I60" s="37" t="s">
+      <c r="I60" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="J60" s="86"/>
+      <c r="J60" s="147"/>
     </row>
     <row r="61" spans="1:10" ht="15" customHeight="1">
-      <c r="A61" s="73"/>
-      <c r="B61" s="74"/>
-      <c r="C61" s="79"/>
-      <c r="D61" s="80"/>
-      <c r="E61" s="79"/>
-      <c r="F61" s="80"/>
-      <c r="G61" s="38" t="s">
+      <c r="A61" s="134"/>
+      <c r="B61" s="135"/>
+      <c r="C61" s="140"/>
+      <c r="D61" s="141"/>
+      <c r="E61" s="140"/>
+      <c r="F61" s="141"/>
+      <c r="G61" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="H61" s="38"/>
-      <c r="I61" s="38"/>
-      <c r="J61" s="86"/>
+      <c r="H61" s="37"/>
+      <c r="I61" s="37"/>
+      <c r="J61" s="147"/>
     </row>
     <row r="62" spans="1:10">
-      <c r="A62" s="73"/>
-      <c r="B62" s="74"/>
-      <c r="C62" s="79"/>
-      <c r="D62" s="80"/>
-      <c r="E62" s="79"/>
-      <c r="F62" s="80"/>
-      <c r="G62" s="37" t="s">
+      <c r="A62" s="134"/>
+      <c r="B62" s="135"/>
+      <c r="C62" s="140"/>
+      <c r="D62" s="141"/>
+      <c r="E62" s="140"/>
+      <c r="F62" s="141"/>
+      <c r="G62" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="H62" s="37" t="s">
+      <c r="H62" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="I62" s="37"/>
-      <c r="J62" s="86"/>
+      <c r="I62" s="36"/>
+      <c r="J62" s="147"/>
     </row>
     <row r="63" spans="1:10" ht="15" customHeight="1">
-      <c r="A63" s="75"/>
-      <c r="B63" s="76"/>
-      <c r="C63" s="81"/>
-      <c r="D63" s="82"/>
-      <c r="E63" s="81"/>
-      <c r="F63" s="82"/>
-      <c r="G63" s="38">
+      <c r="A63" s="136"/>
+      <c r="B63" s="137"/>
+      <c r="C63" s="142"/>
+      <c r="D63" s="143"/>
+      <c r="E63" s="142"/>
+      <c r="F63" s="143"/>
+      <c r="G63" s="37">
         <v>43508</v>
       </c>
-      <c r="H63" s="38"/>
-      <c r="I63" s="34"/>
-      <c r="J63" s="87"/>
+      <c r="H63" s="37"/>
+      <c r="I63" s="33"/>
+      <c r="J63" s="148"/>
     </row>
     <row r="64" spans="1:10">
-      <c r="A64" s="92" t="s">
+      <c r="A64" s="149" t="s">
         <v>11</v>
       </c>
-      <c r="B64" s="93"/>
-      <c r="C64" s="92" t="s">
+      <c r="B64" s="150"/>
+      <c r="C64" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="D64" s="93"/>
-      <c r="E64" s="92" t="s">
+      <c r="D64" s="150"/>
+      <c r="E64" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="F64" s="93"/>
-      <c r="G64" s="95" t="s">
+      <c r="F64" s="150"/>
+      <c r="G64" s="151" t="s">
         <v>14</v>
       </c>
-      <c r="H64" s="95"/>
-      <c r="I64" s="37" t="s">
+      <c r="H64" s="151"/>
+      <c r="I64" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="J64" s="46" t="s">
+      <c r="J64" s="45" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="65" spans="1:10">
-      <c r="A65" s="71" t="s">
+      <c r="A65" s="132" t="s">
         <v>51</v>
       </c>
-      <c r="B65" s="72"/>
-      <c r="C65" s="77" t="s">
+      <c r="B65" s="133"/>
+      <c r="C65" s="138" t="s">
         <v>52</v>
       </c>
-      <c r="D65" s="78"/>
-      <c r="E65" s="77" t="s">
+      <c r="D65" s="139"/>
+      <c r="E65" s="138" t="s">
         <v>53</v>
       </c>
-      <c r="F65" s="78"/>
-      <c r="G65" s="83" t="s">
+      <c r="F65" s="139"/>
+      <c r="G65" s="144" t="s">
         <v>23</v>
       </c>
-      <c r="H65" s="84"/>
-      <c r="I65" s="44" t="s">
+      <c r="H65" s="145"/>
+      <c r="I65" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="J65" s="85"/>
+      <c r="J65" s="146"/>
     </row>
     <row r="66" spans="1:10">
-      <c r="A66" s="73"/>
-      <c r="B66" s="74"/>
-      <c r="C66" s="79"/>
-      <c r="D66" s="80"/>
-      <c r="E66" s="79"/>
-      <c r="F66" s="80"/>
-      <c r="G66" s="37" t="s">
+      <c r="A66" s="134"/>
+      <c r="B66" s="135"/>
+      <c r="C66" s="140"/>
+      <c r="D66" s="141"/>
+      <c r="E66" s="140"/>
+      <c r="F66" s="141"/>
+      <c r="G66" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="H66" s="37" t="s">
+      <c r="H66" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="I66" s="37" t="s">
+      <c r="I66" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="J66" s="86"/>
+      <c r="J66" s="147"/>
     </row>
     <row r="67" spans="1:10">
-      <c r="A67" s="73"/>
-      <c r="B67" s="74"/>
-      <c r="C67" s="79"/>
-      <c r="D67" s="80"/>
-      <c r="E67" s="79"/>
-      <c r="F67" s="80"/>
-      <c r="G67" s="38" t="s">
+      <c r="A67" s="134"/>
+      <c r="B67" s="135"/>
+      <c r="C67" s="140"/>
+      <c r="D67" s="141"/>
+      <c r="E67" s="140"/>
+      <c r="F67" s="141"/>
+      <c r="G67" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="H67" s="38" t="s">
+      <c r="H67" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="I67" s="38" t="s">
+      <c r="I67" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="J67" s="86"/>
+      <c r="J67" s="147"/>
     </row>
     <row r="68" spans="1:10">
-      <c r="A68" s="73"/>
-      <c r="B68" s="74"/>
-      <c r="C68" s="79"/>
-      <c r="D68" s="80"/>
-      <c r="E68" s="79"/>
-      <c r="F68" s="80"/>
-      <c r="G68" s="37" t="s">
+      <c r="A68" s="134"/>
+      <c r="B68" s="135"/>
+      <c r="C68" s="140"/>
+      <c r="D68" s="141"/>
+      <c r="E68" s="140"/>
+      <c r="F68" s="141"/>
+      <c r="G68" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="H68" s="37" t="s">
+      <c r="H68" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="I68" s="37"/>
-      <c r="J68" s="86"/>
+      <c r="I68" s="36"/>
+      <c r="J68" s="147"/>
     </row>
     <row r="69" spans="1:10">
-      <c r="A69" s="75"/>
-      <c r="B69" s="76"/>
-      <c r="C69" s="81"/>
-      <c r="D69" s="82"/>
-      <c r="E69" s="81"/>
-      <c r="F69" s="82"/>
-      <c r="G69" s="38">
+      <c r="A69" s="136"/>
+      <c r="B69" s="137"/>
+      <c r="C69" s="142"/>
+      <c r="D69" s="143"/>
+      <c r="E69" s="142"/>
+      <c r="F69" s="143"/>
+      <c r="G69" s="37">
         <v>43525</v>
       </c>
-      <c r="H69" s="38">
+      <c r="H69" s="37">
         <v>43526</v>
       </c>
-      <c r="I69" s="34"/>
-      <c r="J69" s="87"/>
+      <c r="I69" s="33"/>
+      <c r="J69" s="148"/>
     </row>
     <row r="70" spans="1:10">
-      <c r="A70" s="92" t="s">
+      <c r="A70" s="149" t="s">
         <v>11</v>
       </c>
-      <c r="B70" s="93"/>
-      <c r="C70" s="92" t="s">
+      <c r="B70" s="150"/>
+      <c r="C70" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="D70" s="93"/>
-      <c r="E70" s="92" t="s">
+      <c r="D70" s="150"/>
+      <c r="E70" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="F70" s="93"/>
-      <c r="G70" s="95" t="s">
+      <c r="F70" s="150"/>
+      <c r="G70" s="151" t="s">
         <v>14</v>
       </c>
-      <c r="H70" s="95"/>
-      <c r="I70" s="37" t="s">
+      <c r="H70" s="151"/>
+      <c r="I70" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="J70" s="46" t="s">
+      <c r="J70" s="45" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="15" customHeight="1">
-      <c r="A71" s="71" t="s">
+      <c r="A71" s="132" t="s">
         <v>51</v>
       </c>
-      <c r="B71" s="72"/>
-      <c r="C71" s="77" t="s">
+      <c r="B71" s="133"/>
+      <c r="C71" s="138" t="s">
         <v>52</v>
       </c>
-      <c r="D71" s="78"/>
-      <c r="E71" s="77" t="s">
+      <c r="D71" s="139"/>
+      <c r="E71" s="138" t="s">
         <v>53</v>
       </c>
-      <c r="F71" s="78"/>
-      <c r="G71" s="83" t="s">
+      <c r="F71" s="139"/>
+      <c r="G71" s="144" t="s">
         <v>23</v>
       </c>
-      <c r="H71" s="84"/>
-      <c r="I71" s="44" t="s">
+      <c r="H71" s="145"/>
+      <c r="I71" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="J71" s="85"/>
+      <c r="J71" s="146"/>
     </row>
     <row r="72" spans="1:10">
-      <c r="A72" s="73"/>
-      <c r="B72" s="74"/>
-      <c r="C72" s="79"/>
-      <c r="D72" s="80"/>
-      <c r="E72" s="79"/>
-      <c r="F72" s="80"/>
-      <c r="G72" s="37" t="s">
+      <c r="A72" s="134"/>
+      <c r="B72" s="135"/>
+      <c r="C72" s="140"/>
+      <c r="D72" s="141"/>
+      <c r="E72" s="140"/>
+      <c r="F72" s="141"/>
+      <c r="G72" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="H72" s="37" t="s">
+      <c r="H72" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="I72" s="37" t="s">
+      <c r="I72" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="J72" s="86"/>
+      <c r="J72" s="147"/>
     </row>
     <row r="73" spans="1:10">
-      <c r="A73" s="73"/>
-      <c r="B73" s="74"/>
-      <c r="C73" s="79"/>
-      <c r="D73" s="80"/>
-      <c r="E73" s="79"/>
-      <c r="F73" s="80"/>
-      <c r="G73" s="38" t="s">
+      <c r="A73" s="134"/>
+      <c r="B73" s="135"/>
+      <c r="C73" s="140"/>
+      <c r="D73" s="141"/>
+      <c r="E73" s="140"/>
+      <c r="F73" s="141"/>
+      <c r="G73" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="H73" s="38" t="s">
+      <c r="H73" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="I73" s="38" t="s">
+      <c r="I73" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="J73" s="86"/>
+      <c r="J73" s="147"/>
     </row>
     <row r="74" spans="1:10">
-      <c r="A74" s="73"/>
-      <c r="B74" s="74"/>
-      <c r="C74" s="79"/>
-      <c r="D74" s="80"/>
-      <c r="E74" s="79"/>
-      <c r="F74" s="80"/>
-      <c r="G74" s="37" t="s">
+      <c r="A74" s="134"/>
+      <c r="B74" s="135"/>
+      <c r="C74" s="140"/>
+      <c r="D74" s="141"/>
+      <c r="E74" s="140"/>
+      <c r="F74" s="141"/>
+      <c r="G74" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="H74" s="37" t="s">
+      <c r="H74" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="I74" s="37"/>
-      <c r="J74" s="86"/>
+      <c r="I74" s="36"/>
+      <c r="J74" s="147"/>
     </row>
     <row r="75" spans="1:10">
-      <c r="A75" s="75"/>
-      <c r="B75" s="76"/>
-      <c r="C75" s="81"/>
-      <c r="D75" s="82"/>
-      <c r="E75" s="81"/>
-      <c r="F75" s="82"/>
-      <c r="G75" s="38">
+      <c r="A75" s="136"/>
+      <c r="B75" s="137"/>
+      <c r="C75" s="142"/>
+      <c r="D75" s="143"/>
+      <c r="E75" s="142"/>
+      <c r="F75" s="143"/>
+      <c r="G75" s="37">
         <v>43527</v>
       </c>
-      <c r="H75" s="38">
+      <c r="H75" s="37">
         <v>43528</v>
       </c>
-      <c r="I75" s="34"/>
-      <c r="J75" s="87"/>
+      <c r="I75" s="33"/>
+      <c r="J75" s="148"/>
     </row>
     <row r="76" spans="1:10">
-      <c r="A76" s="71" t="s">
+      <c r="A76" s="132" t="s">
         <v>51</v>
       </c>
-      <c r="B76" s="72"/>
-      <c r="C76" s="77" t="s">
+      <c r="B76" s="133"/>
+      <c r="C76" s="138" t="s">
         <v>52</v>
       </c>
-      <c r="D76" s="78"/>
-      <c r="E76" s="77" t="s">
+      <c r="D76" s="139"/>
+      <c r="E76" s="138" t="s">
         <v>55</v>
       </c>
-      <c r="F76" s="78"/>
-      <c r="G76" s="83" t="s">
+      <c r="F76" s="139"/>
+      <c r="G76" s="144" t="s">
         <v>23</v>
       </c>
-      <c r="H76" s="84"/>
-      <c r="I76" s="44" t="s">
+      <c r="H76" s="145"/>
+      <c r="I76" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="J76" s="85"/>
+      <c r="J76" s="146"/>
     </row>
     <row r="77" spans="1:10">
-      <c r="A77" s="73"/>
-      <c r="B77" s="74"/>
-      <c r="C77" s="79"/>
-      <c r="D77" s="80"/>
-      <c r="E77" s="79"/>
-      <c r="F77" s="80"/>
-      <c r="G77" s="37" t="s">
+      <c r="A77" s="134"/>
+      <c r="B77" s="135"/>
+      <c r="C77" s="140"/>
+      <c r="D77" s="141"/>
+      <c r="E77" s="140"/>
+      <c r="F77" s="141"/>
+      <c r="G77" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="H77" s="37" t="s">
+      <c r="H77" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="I77" s="37" t="s">
+      <c r="I77" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="J77" s="86"/>
+      <c r="J77" s="147"/>
     </row>
     <row r="78" spans="1:10">
-      <c r="A78" s="73"/>
-      <c r="B78" s="74"/>
-      <c r="C78" s="79"/>
-      <c r="D78" s="80"/>
-      <c r="E78" s="79"/>
-      <c r="F78" s="80"/>
-      <c r="G78" s="38" t="s">
+      <c r="A78" s="134"/>
+      <c r="B78" s="135"/>
+      <c r="C78" s="140"/>
+      <c r="D78" s="141"/>
+      <c r="E78" s="140"/>
+      <c r="F78" s="141"/>
+      <c r="G78" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="H78" s="38" t="s">
+      <c r="H78" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="I78" s="38" t="s">
+      <c r="I78" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="J78" s="86"/>
+      <c r="J78" s="147"/>
     </row>
     <row r="79" spans="1:10">
-      <c r="A79" s="73"/>
-      <c r="B79" s="74"/>
-      <c r="C79" s="79"/>
-      <c r="D79" s="80"/>
-      <c r="E79" s="79"/>
-      <c r="F79" s="80"/>
-      <c r="G79" s="37" t="s">
+      <c r="A79" s="134"/>
+      <c r="B79" s="135"/>
+      <c r="C79" s="140"/>
+      <c r="D79" s="141"/>
+      <c r="E79" s="140"/>
+      <c r="F79" s="141"/>
+      <c r="G79" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="H79" s="37" t="s">
+      <c r="H79" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="I79" s="37"/>
-      <c r="J79" s="86"/>
+      <c r="I79" s="36"/>
+      <c r="J79" s="147"/>
     </row>
     <row r="80" spans="1:10">
-      <c r="A80" s="75"/>
-      <c r="B80" s="76"/>
-      <c r="C80" s="81"/>
-      <c r="D80" s="82"/>
-      <c r="E80" s="81"/>
-      <c r="F80" s="82"/>
-      <c r="G80" s="38">
+      <c r="A80" s="136"/>
+      <c r="B80" s="137"/>
+      <c r="C80" s="142"/>
+      <c r="D80" s="143"/>
+      <c r="E80" s="142"/>
+      <c r="F80" s="143"/>
+      <c r="G80" s="37">
         <v>43529</v>
       </c>
-      <c r="H80" s="38">
+      <c r="H80" s="37">
         <v>43530</v>
       </c>
-      <c r="I80" s="34"/>
-      <c r="J80" s="87"/>
+      <c r="I80" s="33"/>
+      <c r="J80" s="148"/>
     </row>
     <row r="81" spans="1:10" ht="15" customHeight="1">
-      <c r="A81" s="71" t="s">
+      <c r="A81" s="132" t="s">
         <v>51</v>
       </c>
-      <c r="B81" s="72"/>
-      <c r="C81" s="77" t="s">
+      <c r="B81" s="133"/>
+      <c r="C81" s="138" t="s">
         <v>52</v>
       </c>
-      <c r="D81" s="78"/>
-      <c r="E81" s="77" t="s">
+      <c r="D81" s="139"/>
+      <c r="E81" s="138" t="s">
         <v>56</v>
       </c>
-      <c r="F81" s="78"/>
-      <c r="G81" s="83" t="s">
+      <c r="F81" s="139"/>
+      <c r="G81" s="144" t="s">
         <v>23</v>
       </c>
-      <c r="H81" s="84"/>
-      <c r="I81" s="44" t="s">
+      <c r="H81" s="145"/>
+      <c r="I81" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="J81" s="85"/>
+      <c r="J81" s="146"/>
     </row>
     <row r="82" spans="1:10">
-      <c r="A82" s="73"/>
-      <c r="B82" s="74"/>
-      <c r="C82" s="79"/>
-      <c r="D82" s="80"/>
-      <c r="E82" s="79"/>
-      <c r="F82" s="80"/>
-      <c r="G82" s="37" t="s">
+      <c r="A82" s="134"/>
+      <c r="B82" s="135"/>
+      <c r="C82" s="140"/>
+      <c r="D82" s="141"/>
+      <c r="E82" s="140"/>
+      <c r="F82" s="141"/>
+      <c r="G82" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="H82" s="37" t="s">
+      <c r="H82" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="I82" s="37" t="s">
+      <c r="I82" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="J82" s="86"/>
+      <c r="J82" s="147"/>
     </row>
     <row r="83" spans="1:10">
-      <c r="A83" s="73"/>
-      <c r="B83" s="74"/>
-      <c r="C83" s="79"/>
-      <c r="D83" s="80"/>
-      <c r="E83" s="79"/>
-      <c r="F83" s="80"/>
-      <c r="G83" s="38" t="s">
+      <c r="A83" s="134"/>
+      <c r="B83" s="135"/>
+      <c r="C83" s="140"/>
+      <c r="D83" s="141"/>
+      <c r="E83" s="140"/>
+      <c r="F83" s="141"/>
+      <c r="G83" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="H83" s="38" t="s">
+      <c r="H83" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="I83" s="38" t="s">
+      <c r="I83" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="J83" s="86"/>
+      <c r="J83" s="147"/>
     </row>
     <row r="84" spans="1:10">
-      <c r="A84" s="73"/>
-      <c r="B84" s="74"/>
-      <c r="C84" s="79"/>
-      <c r="D84" s="80"/>
-      <c r="E84" s="79"/>
-      <c r="F84" s="80"/>
-      <c r="G84" s="37" t="s">
+      <c r="A84" s="134"/>
+      <c r="B84" s="135"/>
+      <c r="C84" s="140"/>
+      <c r="D84" s="141"/>
+      <c r="E84" s="140"/>
+      <c r="F84" s="141"/>
+      <c r="G84" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="H84" s="37" t="s">
+      <c r="H84" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="I84" s="37"/>
-      <c r="J84" s="86"/>
+      <c r="I84" s="36"/>
+      <c r="J84" s="147"/>
     </row>
     <row r="85" spans="1:10">
-      <c r="A85" s="75"/>
-      <c r="B85" s="76"/>
-      <c r="C85" s="81"/>
-      <c r="D85" s="82"/>
-      <c r="E85" s="81"/>
-      <c r="F85" s="82"/>
-      <c r="G85" s="38">
+      <c r="A85" s="136"/>
+      <c r="B85" s="137"/>
+      <c r="C85" s="142"/>
+      <c r="D85" s="143"/>
+      <c r="E85" s="142"/>
+      <c r="F85" s="143"/>
+      <c r="G85" s="37">
         <v>43531</v>
       </c>
-      <c r="H85" s="38">
+      <c r="H85" s="37">
         <v>43532</v>
       </c>
-      <c r="I85" s="34"/>
-      <c r="J85" s="87"/>
+      <c r="I85" s="33"/>
+      <c r="J85" s="148"/>
     </row>
     <row r="86" spans="1:10">
-      <c r="A86" s="71" t="s">
+      <c r="A86" s="132" t="s">
         <v>51</v>
       </c>
-      <c r="B86" s="72"/>
-      <c r="C86" s="77" t="s">
+      <c r="B86" s="133"/>
+      <c r="C86" s="138" t="s">
         <v>52</v>
       </c>
-      <c r="D86" s="78"/>
-      <c r="E86" s="77" t="s">
+      <c r="D86" s="139"/>
+      <c r="E86" s="138" t="s">
         <v>57</v>
       </c>
-      <c r="F86" s="78"/>
-      <c r="G86" s="83" t="s">
+      <c r="F86" s="139"/>
+      <c r="G86" s="144" t="s">
         <v>42</v>
       </c>
-      <c r="H86" s="84"/>
-      <c r="I86" s="44"/>
-      <c r="J86" s="85"/>
+      <c r="H86" s="145"/>
+      <c r="I86" s="43"/>
+      <c r="J86" s="146"/>
     </row>
     <row r="87" spans="1:10">
-      <c r="A87" s="73"/>
-      <c r="B87" s="74"/>
-      <c r="C87" s="79"/>
-      <c r="D87" s="80"/>
-      <c r="E87" s="79"/>
-      <c r="F87" s="80"/>
-      <c r="G87" s="37" t="s">
+      <c r="A87" s="134"/>
+      <c r="B87" s="135"/>
+      <c r="C87" s="140"/>
+      <c r="D87" s="141"/>
+      <c r="E87" s="140"/>
+      <c r="F87" s="141"/>
+      <c r="G87" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="H87" s="37" t="s">
+      <c r="H87" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="I87" s="37" t="s">
+      <c r="I87" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="J87" s="86"/>
+      <c r="J87" s="147"/>
     </row>
     <row r="88" spans="1:10">
-      <c r="A88" s="73"/>
-      <c r="B88" s="74"/>
-      <c r="C88" s="79"/>
-      <c r="D88" s="80"/>
-      <c r="E88" s="79"/>
-      <c r="F88" s="80"/>
-      <c r="G88" s="38" t="s">
+      <c r="A88" s="134"/>
+      <c r="B88" s="135"/>
+      <c r="C88" s="140"/>
+      <c r="D88" s="141"/>
+      <c r="E88" s="140"/>
+      <c r="F88" s="141"/>
+      <c r="G88" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="H88" s="38"/>
-      <c r="I88" s="38"/>
-      <c r="J88" s="86"/>
+      <c r="H88" s="37"/>
+      <c r="I88" s="37"/>
+      <c r="J88" s="147"/>
     </row>
     <row r="89" spans="1:10">
-      <c r="A89" s="73"/>
-      <c r="B89" s="74"/>
-      <c r="C89" s="79"/>
-      <c r="D89" s="80"/>
-      <c r="E89" s="79"/>
-      <c r="F89" s="80"/>
-      <c r="G89" s="37" t="s">
+      <c r="A89" s="134"/>
+      <c r="B89" s="135"/>
+      <c r="C89" s="140"/>
+      <c r="D89" s="141"/>
+      <c r="E89" s="140"/>
+      <c r="F89" s="141"/>
+      <c r="G89" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="H89" s="37" t="s">
+      <c r="H89" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="I89" s="37"/>
-      <c r="J89" s="86"/>
+      <c r="I89" s="36"/>
+      <c r="J89" s="147"/>
     </row>
     <row r="90" spans="1:10">
-      <c r="A90" s="75"/>
-      <c r="B90" s="76"/>
-      <c r="C90" s="81"/>
-      <c r="D90" s="82"/>
-      <c r="E90" s="81"/>
-      <c r="F90" s="82"/>
-      <c r="G90" s="38">
+      <c r="A90" s="136"/>
+      <c r="B90" s="137"/>
+      <c r="C90" s="142"/>
+      <c r="D90" s="143"/>
+      <c r="E90" s="142"/>
+      <c r="F90" s="143"/>
+      <c r="G90" s="37">
         <v>43168</v>
       </c>
-      <c r="H90" s="38"/>
-      <c r="I90" s="34"/>
-      <c r="J90" s="87"/>
+      <c r="H90" s="37"/>
+      <c r="I90" s="33"/>
+      <c r="J90" s="148"/>
     </row>
     <row r="91" spans="1:10" ht="15" customHeight="1">
-      <c r="A91" s="71" t="s">
+      <c r="A91" s="132" t="s">
         <v>51</v>
       </c>
-      <c r="B91" s="72"/>
-      <c r="C91" s="77" t="s">
+      <c r="B91" s="133"/>
+      <c r="C91" s="138" t="s">
         <v>52</v>
       </c>
-      <c r="D91" s="78"/>
-      <c r="E91" s="77" t="s">
+      <c r="D91" s="139"/>
+      <c r="E91" s="138" t="s">
         <v>57</v>
       </c>
-      <c r="F91" s="78"/>
-      <c r="G91" s="83" t="s">
+      <c r="F91" s="139"/>
+      <c r="G91" s="144" t="s">
         <v>42</v>
       </c>
-      <c r="H91" s="84"/>
-      <c r="I91" s="44"/>
-      <c r="J91" s="85"/>
+      <c r="H91" s="145"/>
+      <c r="I91" s="43"/>
+      <c r="J91" s="146"/>
     </row>
     <row r="92" spans="1:10">
-      <c r="A92" s="73"/>
-      <c r="B92" s="74"/>
-      <c r="C92" s="79"/>
-      <c r="D92" s="80"/>
-      <c r="E92" s="79"/>
-      <c r="F92" s="80"/>
-      <c r="G92" s="37" t="s">
+      <c r="A92" s="134"/>
+      <c r="B92" s="135"/>
+      <c r="C92" s="140"/>
+      <c r="D92" s="141"/>
+      <c r="E92" s="140"/>
+      <c r="F92" s="141"/>
+      <c r="G92" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="H92" s="37" t="s">
+      <c r="H92" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="I92" s="37" t="s">
+      <c r="I92" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="J92" s="86"/>
+      <c r="J92" s="147"/>
     </row>
     <row r="93" spans="1:10">
-      <c r="A93" s="73"/>
-      <c r="B93" s="74"/>
-      <c r="C93" s="79"/>
-      <c r="D93" s="80"/>
-      <c r="E93" s="79"/>
-      <c r="F93" s="80"/>
-      <c r="G93" s="38" t="s">
+      <c r="A93" s="134"/>
+      <c r="B93" s="135"/>
+      <c r="C93" s="140"/>
+      <c r="D93" s="141"/>
+      <c r="E93" s="140"/>
+      <c r="F93" s="141"/>
+      <c r="G93" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="H93" s="38"/>
-      <c r="I93" s="38"/>
-      <c r="J93" s="86"/>
+      <c r="H93" s="37"/>
+      <c r="I93" s="37"/>
+      <c r="J93" s="147"/>
     </row>
     <row r="94" spans="1:10">
-      <c r="A94" s="73"/>
-      <c r="B94" s="74"/>
-      <c r="C94" s="79"/>
-      <c r="D94" s="80"/>
-      <c r="E94" s="79"/>
-      <c r="F94" s="80"/>
-      <c r="G94" s="37" t="s">
+      <c r="A94" s="134"/>
+      <c r="B94" s="135"/>
+      <c r="C94" s="140"/>
+      <c r="D94" s="141"/>
+      <c r="E94" s="140"/>
+      <c r="F94" s="141"/>
+      <c r="G94" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="H94" s="37" t="s">
+      <c r="H94" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="I94" s="37"/>
-      <c r="J94" s="86"/>
+      <c r="I94" s="36"/>
+      <c r="J94" s="147"/>
     </row>
     <row r="95" spans="1:10">
-      <c r="A95" s="75"/>
-      <c r="B95" s="76"/>
-      <c r="C95" s="81"/>
-      <c r="D95" s="82"/>
-      <c r="E95" s="81"/>
-      <c r="F95" s="82"/>
-      <c r="G95" s="38">
+      <c r="A95" s="136"/>
+      <c r="B95" s="137"/>
+      <c r="C95" s="142"/>
+      <c r="D95" s="143"/>
+      <c r="E95" s="142"/>
+      <c r="F95" s="143"/>
+      <c r="G95" s="37">
         <v>43168</v>
       </c>
-      <c r="H95" s="38"/>
-      <c r="I95" s="34"/>
-      <c r="J95" s="87"/>
+      <c r="H95" s="37"/>
+      <c r="I95" s="33"/>
+      <c r="J95" s="148"/>
     </row>
     <row r="96" spans="1:10">
-      <c r="A96" s="71" t="s">
+      <c r="A96" s="132" t="s">
         <v>58</v>
       </c>
-      <c r="B96" s="72"/>
-      <c r="C96" s="77" t="s">
+      <c r="B96" s="133"/>
+      <c r="C96" s="138" t="s">
         <v>59</v>
       </c>
-      <c r="D96" s="78"/>
-      <c r="E96" s="77" t="s">
+      <c r="D96" s="139"/>
+      <c r="E96" s="138" t="s">
         <v>60</v>
       </c>
-      <c r="F96" s="78"/>
-      <c r="G96" s="83" t="s">
+      <c r="F96" s="139"/>
+      <c r="G96" s="144" t="s">
         <v>23</v>
       </c>
-      <c r="H96" s="84"/>
-      <c r="I96" s="44" t="s">
+      <c r="H96" s="145"/>
+      <c r="I96" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="J96" s="85"/>
+      <c r="J96" s="146"/>
     </row>
     <row r="97" spans="1:10">
-      <c r="A97" s="73"/>
-      <c r="B97" s="74"/>
-      <c r="C97" s="79"/>
-      <c r="D97" s="80"/>
-      <c r="E97" s="79"/>
-      <c r="F97" s="80"/>
-      <c r="G97" s="37" t="s">
+      <c r="A97" s="134"/>
+      <c r="B97" s="135"/>
+      <c r="C97" s="140"/>
+      <c r="D97" s="141"/>
+      <c r="E97" s="140"/>
+      <c r="F97" s="141"/>
+      <c r="G97" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="H97" s="37" t="s">
+      <c r="H97" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="I97" s="37" t="s">
+      <c r="I97" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="J97" s="86"/>
+      <c r="J97" s="147"/>
     </row>
     <row r="98" spans="1:10">
-      <c r="A98" s="73"/>
-      <c r="B98" s="74"/>
-      <c r="C98" s="79"/>
-      <c r="D98" s="80"/>
-      <c r="E98" s="79"/>
-      <c r="F98" s="80"/>
-      <c r="G98" s="38" t="s">
+      <c r="A98" s="134"/>
+      <c r="B98" s="135"/>
+      <c r="C98" s="140"/>
+      <c r="D98" s="141"/>
+      <c r="E98" s="140"/>
+      <c r="F98" s="141"/>
+      <c r="G98" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="H98" s="38" t="s">
+      <c r="H98" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="I98" s="38" t="s">
+      <c r="I98" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="J98" s="86"/>
+      <c r="J98" s="147"/>
     </row>
     <row r="99" spans="1:10">
-      <c r="A99" s="73"/>
-      <c r="B99" s="74"/>
-      <c r="C99" s="79"/>
-      <c r="D99" s="80"/>
-      <c r="E99" s="79"/>
-      <c r="F99" s="80"/>
-      <c r="G99" s="37" t="s">
+      <c r="A99" s="134"/>
+      <c r="B99" s="135"/>
+      <c r="C99" s="140"/>
+      <c r="D99" s="141"/>
+      <c r="E99" s="140"/>
+      <c r="F99" s="141"/>
+      <c r="G99" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="H99" s="37" t="s">
+      <c r="H99" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="I99" s="37"/>
-      <c r="J99" s="86"/>
+      <c r="I99" s="36"/>
+      <c r="J99" s="147"/>
     </row>
     <row r="100" spans="1:10">
-      <c r="A100" s="75"/>
-      <c r="B100" s="76"/>
-      <c r="C100" s="81"/>
-      <c r="D100" s="82"/>
-      <c r="E100" s="81"/>
-      <c r="F100" s="82"/>
-      <c r="G100" s="38">
+      <c r="A100" s="136"/>
+      <c r="B100" s="137"/>
+      <c r="C100" s="142"/>
+      <c r="D100" s="143"/>
+      <c r="E100" s="142"/>
+      <c r="F100" s="143"/>
+      <c r="G100" s="37">
         <v>43521</v>
       </c>
-      <c r="H100" s="38">
+      <c r="H100" s="37">
         <v>43522</v>
       </c>
-      <c r="I100" s="34"/>
-      <c r="J100" s="87"/>
+      <c r="I100" s="33"/>
+      <c r="J100" s="148"/>
     </row>
     <row r="101" spans="1:10" ht="15" customHeight="1">
-      <c r="A101" s="71" t="s">
+      <c r="A101" s="132" t="s">
         <v>58</v>
       </c>
-      <c r="B101" s="72"/>
-      <c r="C101" s="77" t="s">
+      <c r="B101" s="133"/>
+      <c r="C101" s="138" t="s">
         <v>59</v>
       </c>
-      <c r="D101" s="78"/>
-      <c r="E101" s="77" t="s">
+      <c r="D101" s="139"/>
+      <c r="E101" s="138" t="s">
         <v>60</v>
       </c>
-      <c r="F101" s="78"/>
-      <c r="G101" s="83" t="s">
+      <c r="F101" s="139"/>
+      <c r="G101" s="144" t="s">
         <v>23</v>
       </c>
-      <c r="H101" s="84"/>
-      <c r="I101" s="44" t="s">
+      <c r="H101" s="145"/>
+      <c r="I101" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="J101" s="85"/>
+      <c r="J101" s="146"/>
     </row>
     <row r="102" spans="1:10">
-      <c r="A102" s="73"/>
-      <c r="B102" s="74"/>
-      <c r="C102" s="79"/>
-      <c r="D102" s="80"/>
-      <c r="E102" s="79"/>
-      <c r="F102" s="80"/>
-      <c r="G102" s="37" t="s">
+      <c r="A102" s="134"/>
+      <c r="B102" s="135"/>
+      <c r="C102" s="140"/>
+      <c r="D102" s="141"/>
+      <c r="E102" s="140"/>
+      <c r="F102" s="141"/>
+      <c r="G102" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="H102" s="37" t="s">
+      <c r="H102" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="I102" s="37" t="s">
+      <c r="I102" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="J102" s="86"/>
+      <c r="J102" s="147"/>
     </row>
     <row r="103" spans="1:10">
-      <c r="A103" s="73"/>
-      <c r="B103" s="74"/>
-      <c r="C103" s="79"/>
-      <c r="D103" s="80"/>
-      <c r="E103" s="79"/>
-      <c r="F103" s="80"/>
-      <c r="G103" s="38" t="s">
+      <c r="A103" s="134"/>
+      <c r="B103" s="135"/>
+      <c r="C103" s="140"/>
+      <c r="D103" s="141"/>
+      <c r="E103" s="140"/>
+      <c r="F103" s="141"/>
+      <c r="G103" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="H103" s="38" t="s">
+      <c r="H103" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="I103" s="38" t="s">
+      <c r="I103" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="J103" s="86"/>
+      <c r="J103" s="147"/>
     </row>
     <row r="104" spans="1:10">
-      <c r="A104" s="73"/>
-      <c r="B104" s="74"/>
-      <c r="C104" s="79"/>
-      <c r="D104" s="80"/>
-      <c r="E104" s="79"/>
-      <c r="F104" s="80"/>
-      <c r="G104" s="37" t="s">
+      <c r="A104" s="134"/>
+      <c r="B104" s="135"/>
+      <c r="C104" s="140"/>
+      <c r="D104" s="141"/>
+      <c r="E104" s="140"/>
+      <c r="F104" s="141"/>
+      <c r="G104" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="H104" s="37" t="s">
+      <c r="H104" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="I104" s="37"/>
-      <c r="J104" s="86"/>
+      <c r="I104" s="36"/>
+      <c r="J104" s="147"/>
     </row>
     <row r="105" spans="1:10">
-      <c r="A105" s="75"/>
-      <c r="B105" s="76"/>
-      <c r="C105" s="81"/>
-      <c r="D105" s="82"/>
-      <c r="E105" s="81"/>
-      <c r="F105" s="82"/>
-      <c r="G105" s="38">
+      <c r="A105" s="136"/>
+      <c r="B105" s="137"/>
+      <c r="C105" s="142"/>
+      <c r="D105" s="143"/>
+      <c r="E105" s="142"/>
+      <c r="F105" s="143"/>
+      <c r="G105" s="37">
         <v>43523</v>
       </c>
-      <c r="H105" s="38">
+      <c r="H105" s="37">
         <v>43526</v>
       </c>
-      <c r="I105" s="34"/>
-      <c r="J105" s="87"/>
+      <c r="I105" s="33"/>
+      <c r="J105" s="148"/>
     </row>
     <row r="106" spans="1:10" ht="15" customHeight="1">
-      <c r="A106" s="71" t="s">
+      <c r="A106" s="132" t="s">
         <v>58</v>
       </c>
-      <c r="B106" s="72"/>
-      <c r="C106" s="77" t="s">
+      <c r="B106" s="133"/>
+      <c r="C106" s="138" t="s">
         <v>59</v>
       </c>
-      <c r="D106" s="78"/>
-      <c r="E106" s="77" t="s">
+      <c r="D106" s="139"/>
+      <c r="E106" s="138" t="s">
         <v>61</v>
       </c>
-      <c r="F106" s="78"/>
-      <c r="G106" s="83" t="s">
+      <c r="F106" s="139"/>
+      <c r="G106" s="144" t="s">
         <v>23</v>
       </c>
-      <c r="H106" s="84"/>
-      <c r="I106" s="44" t="s">
+      <c r="H106" s="145"/>
+      <c r="I106" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="J106" s="85"/>
+      <c r="J106" s="146"/>
     </row>
     <row r="107" spans="1:10">
-      <c r="A107" s="73"/>
-      <c r="B107" s="74"/>
-      <c r="C107" s="79"/>
-      <c r="D107" s="80"/>
-      <c r="E107" s="79"/>
-      <c r="F107" s="80"/>
-      <c r="G107" s="37" t="s">
+      <c r="A107" s="134"/>
+      <c r="B107" s="135"/>
+      <c r="C107" s="140"/>
+      <c r="D107" s="141"/>
+      <c r="E107" s="140"/>
+      <c r="F107" s="141"/>
+      <c r="G107" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="H107" s="37" t="s">
+      <c r="H107" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="I107" s="37" t="s">
+      <c r="I107" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="J107" s="86"/>
+      <c r="J107" s="147"/>
     </row>
     <row r="108" spans="1:10">
-      <c r="A108" s="73"/>
-      <c r="B108" s="74"/>
-      <c r="C108" s="79"/>
-      <c r="D108" s="80"/>
-      <c r="E108" s="79"/>
-      <c r="F108" s="80"/>
-      <c r="G108" s="38" t="s">
+      <c r="A108" s="134"/>
+      <c r="B108" s="135"/>
+      <c r="C108" s="140"/>
+      <c r="D108" s="141"/>
+      <c r="E108" s="140"/>
+      <c r="F108" s="141"/>
+      <c r="G108" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="H108" s="38" t="s">
+      <c r="H108" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="I108" s="38" t="s">
+      <c r="I108" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="J108" s="86"/>
+      <c r="J108" s="147"/>
     </row>
     <row r="109" spans="1:10">
-      <c r="A109" s="73"/>
-      <c r="B109" s="74"/>
-      <c r="C109" s="79"/>
-      <c r="D109" s="80"/>
-      <c r="E109" s="79"/>
-      <c r="F109" s="80"/>
-      <c r="G109" s="37" t="s">
+      <c r="A109" s="134"/>
+      <c r="B109" s="135"/>
+      <c r="C109" s="140"/>
+      <c r="D109" s="141"/>
+      <c r="E109" s="140"/>
+      <c r="F109" s="141"/>
+      <c r="G109" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="H109" s="37" t="s">
+      <c r="H109" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="I109" s="37"/>
-      <c r="J109" s="86"/>
+      <c r="I109" s="36"/>
+      <c r="J109" s="147"/>
     </row>
     <row r="110" spans="1:10">
-      <c r="A110" s="75"/>
-      <c r="B110" s="76"/>
-      <c r="C110" s="81"/>
-      <c r="D110" s="82"/>
-      <c r="E110" s="81"/>
-      <c r="F110" s="82"/>
-      <c r="G110" s="38">
+      <c r="A110" s="136"/>
+      <c r="B110" s="137"/>
+      <c r="C110" s="142"/>
+      <c r="D110" s="143"/>
+      <c r="E110" s="142"/>
+      <c r="F110" s="143"/>
+      <c r="G110" s="37">
         <v>43526</v>
       </c>
-      <c r="H110" s="38">
+      <c r="H110" s="37">
         <v>43528</v>
       </c>
-      <c r="I110" s="34"/>
-      <c r="J110" s="87"/>
+      <c r="I110" s="33"/>
+      <c r="J110" s="148"/>
     </row>
     <row r="111" spans="1:10" ht="15" customHeight="1">
-      <c r="A111" s="71" t="s">
+      <c r="A111" s="132" t="s">
         <v>58</v>
       </c>
-      <c r="B111" s="72"/>
-      <c r="C111" s="77" t="s">
+      <c r="B111" s="133"/>
+      <c r="C111" s="138" t="s">
         <v>59</v>
       </c>
-      <c r="D111" s="78"/>
-      <c r="E111" s="77" t="s">
+      <c r="D111" s="139"/>
+      <c r="E111" s="138" t="s">
         <v>63</v>
       </c>
-      <c r="F111" s="78"/>
-      <c r="G111" s="83" t="s">
+      <c r="F111" s="139"/>
+      <c r="G111" s="144" t="s">
         <v>42</v>
       </c>
-      <c r="H111" s="84"/>
-      <c r="I111" s="44"/>
-      <c r="J111" s="85"/>
+      <c r="H111" s="145"/>
+      <c r="I111" s="43"/>
+      <c r="J111" s="146"/>
     </row>
     <row r="112" spans="1:10">
-      <c r="A112" s="73"/>
-      <c r="B112" s="74"/>
-      <c r="C112" s="79"/>
-      <c r="D112" s="80"/>
-      <c r="E112" s="79"/>
-      <c r="F112" s="80"/>
-      <c r="G112" s="37" t="s">
+      <c r="A112" s="134"/>
+      <c r="B112" s="135"/>
+      <c r="C112" s="140"/>
+      <c r="D112" s="141"/>
+      <c r="E112" s="140"/>
+      <c r="F112" s="141"/>
+      <c r="G112" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="H112" s="37" t="s">
+      <c r="H112" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="I112" s="37" t="s">
+      <c r="I112" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="J112" s="86"/>
+      <c r="J112" s="147"/>
     </row>
     <row r="113" spans="1:10">
-      <c r="A113" s="73"/>
-      <c r="B113" s="74"/>
-      <c r="C113" s="79"/>
-      <c r="D113" s="80"/>
-      <c r="E113" s="79"/>
-      <c r="F113" s="80"/>
-      <c r="G113" s="38" t="s">
+      <c r="A113" s="134"/>
+      <c r="B113" s="135"/>
+      <c r="C113" s="140"/>
+      <c r="D113" s="141"/>
+      <c r="E113" s="140"/>
+      <c r="F113" s="141"/>
+      <c r="G113" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="H113" s="38"/>
-      <c r="I113" s="38"/>
-      <c r="J113" s="86"/>
+      <c r="H113" s="37"/>
+      <c r="I113" s="37"/>
+      <c r="J113" s="147"/>
     </row>
     <row r="114" spans="1:10">
-      <c r="A114" s="73"/>
-      <c r="B114" s="74"/>
-      <c r="C114" s="79"/>
-      <c r="D114" s="80"/>
-      <c r="E114" s="79"/>
-      <c r="F114" s="80"/>
-      <c r="G114" s="37" t="s">
+      <c r="A114" s="134"/>
+      <c r="B114" s="135"/>
+      <c r="C114" s="140"/>
+      <c r="D114" s="141"/>
+      <c r="E114" s="140"/>
+      <c r="F114" s="141"/>
+      <c r="G114" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="H114" s="37" t="s">
+      <c r="H114" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="I114" s="37"/>
-      <c r="J114" s="86"/>
+      <c r="I114" s="36"/>
+      <c r="J114" s="147"/>
     </row>
     <row r="115" spans="1:10">
-      <c r="A115" s="75"/>
-      <c r="B115" s="76"/>
-      <c r="C115" s="81"/>
-      <c r="D115" s="82"/>
-      <c r="E115" s="81"/>
-      <c r="F115" s="82"/>
-      <c r="G115" s="38">
+      <c r="A115" s="136"/>
+      <c r="B115" s="137"/>
+      <c r="C115" s="142"/>
+      <c r="D115" s="143"/>
+      <c r="E115" s="142"/>
+      <c r="F115" s="143"/>
+      <c r="G115" s="37">
         <v>43529</v>
       </c>
-      <c r="H115" s="38"/>
-      <c r="I115" s="34"/>
-      <c r="J115" s="87"/>
+      <c r="H115" s="37"/>
+      <c r="I115" s="33"/>
+      <c r="J115" s="148"/>
     </row>
     <row r="116" spans="1:10">
-      <c r="A116" s="71" t="s">
+      <c r="A116" s="132" t="s">
         <v>58</v>
       </c>
-      <c r="B116" s="72"/>
-      <c r="C116" s="77" t="s">
+      <c r="B116" s="133"/>
+      <c r="C116" s="138" t="s">
         <v>59</v>
       </c>
-      <c r="D116" s="78"/>
-      <c r="E116" s="77" t="s">
+      <c r="D116" s="139"/>
+      <c r="E116" s="138" t="s">
         <v>63</v>
       </c>
-      <c r="F116" s="78"/>
-      <c r="G116" s="83" t="s">
+      <c r="F116" s="139"/>
+      <c r="G116" s="144" t="s">
         <v>42</v>
       </c>
-      <c r="H116" s="84"/>
-      <c r="I116" s="44"/>
-      <c r="J116" s="85"/>
+      <c r="H116" s="145"/>
+      <c r="I116" s="43"/>
+      <c r="J116" s="146"/>
     </row>
     <row r="117" spans="1:10">
-      <c r="A117" s="73"/>
-      <c r="B117" s="74"/>
-      <c r="C117" s="79"/>
-      <c r="D117" s="80"/>
-      <c r="E117" s="79"/>
-      <c r="F117" s="80"/>
-      <c r="G117" s="45" t="s">
+      <c r="A117" s="134"/>
+      <c r="B117" s="135"/>
+      <c r="C117" s="140"/>
+      <c r="D117" s="141"/>
+      <c r="E117" s="140"/>
+      <c r="F117" s="141"/>
+      <c r="G117" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="H117" s="45" t="s">
+      <c r="H117" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="I117" s="45" t="s">
+      <c r="I117" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="J117" s="86"/>
+      <c r="J117" s="147"/>
     </row>
     <row r="118" spans="1:10">
-      <c r="A118" s="73"/>
-      <c r="B118" s="74"/>
-      <c r="C118" s="79"/>
-      <c r="D118" s="80"/>
-      <c r="E118" s="79"/>
-      <c r="F118" s="80"/>
-      <c r="G118" s="38" t="s">
+      <c r="A118" s="134"/>
+      <c r="B118" s="135"/>
+      <c r="C118" s="140"/>
+      <c r="D118" s="141"/>
+      <c r="E118" s="140"/>
+      <c r="F118" s="141"/>
+      <c r="G118" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="H118" s="38"/>
-      <c r="I118" s="38"/>
-      <c r="J118" s="86"/>
+      <c r="H118" s="37"/>
+      <c r="I118" s="37"/>
+      <c r="J118" s="147"/>
     </row>
     <row r="119" spans="1:10">
-      <c r="A119" s="73"/>
-      <c r="B119" s="74"/>
-      <c r="C119" s="79"/>
-      <c r="D119" s="80"/>
-      <c r="E119" s="79"/>
-      <c r="F119" s="80"/>
-      <c r="G119" s="45" t="s">
+      <c r="A119" s="134"/>
+      <c r="B119" s="135"/>
+      <c r="C119" s="140"/>
+      <c r="D119" s="141"/>
+      <c r="E119" s="140"/>
+      <c r="F119" s="141"/>
+      <c r="G119" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="H119" s="45" t="s">
+      <c r="H119" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="I119" s="45"/>
-      <c r="J119" s="86"/>
+      <c r="I119" s="44"/>
+      <c r="J119" s="147"/>
     </row>
     <row r="120" spans="1:10">
-      <c r="A120" s="75"/>
-      <c r="B120" s="76"/>
-      <c r="C120" s="81"/>
-      <c r="D120" s="82"/>
-      <c r="E120" s="81"/>
-      <c r="F120" s="82"/>
-      <c r="G120" s="38">
+      <c r="A120" s="136"/>
+      <c r="B120" s="137"/>
+      <c r="C120" s="142"/>
+      <c r="D120" s="143"/>
+      <c r="E120" s="142"/>
+      <c r="F120" s="143"/>
+      <c r="G120" s="37">
         <v>43530</v>
       </c>
-      <c r="H120" s="38"/>
-      <c r="I120" s="34"/>
-      <c r="J120" s="87"/>
+      <c r="H120" s="37"/>
+      <c r="I120" s="33"/>
+      <c r="J120" s="148"/>
     </row>
     <row r="121" spans="1:10">
-      <c r="A121" s="71" t="s">
+      <c r="A121" s="132" t="s">
         <v>64</v>
       </c>
-      <c r="B121" s="72"/>
-      <c r="C121" s="77" t="s">
+      <c r="B121" s="133"/>
+      <c r="C121" s="138" t="s">
         <v>65</v>
       </c>
-      <c r="D121" s="78"/>
-      <c r="E121" s="77" t="s">
+      <c r="D121" s="139"/>
+      <c r="E121" s="138" t="s">
         <v>66</v>
       </c>
-      <c r="F121" s="78"/>
-      <c r="G121" s="83" t="s">
+      <c r="F121" s="139"/>
+      <c r="G121" s="144" t="s">
         <v>42</v>
       </c>
-      <c r="H121" s="84"/>
-      <c r="I121" s="44"/>
-      <c r="J121" s="85"/>
+      <c r="H121" s="145"/>
+      <c r="I121" s="43"/>
+      <c r="J121" s="146"/>
     </row>
     <row r="122" spans="1:10">
-      <c r="A122" s="73"/>
-      <c r="B122" s="74"/>
-      <c r="C122" s="79"/>
-      <c r="D122" s="80"/>
-      <c r="E122" s="79"/>
-      <c r="F122" s="80"/>
-      <c r="G122" s="45" t="s">
+      <c r="A122" s="134"/>
+      <c r="B122" s="135"/>
+      <c r="C122" s="140"/>
+      <c r="D122" s="141"/>
+      <c r="E122" s="140"/>
+      <c r="F122" s="141"/>
+      <c r="G122" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="H122" s="45" t="s">
+      <c r="H122" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="I122" s="45" t="s">
+      <c r="I122" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="J122" s="86"/>
+      <c r="J122" s="147"/>
     </row>
     <row r="123" spans="1:10">
-      <c r="A123" s="73"/>
-      <c r="B123" s="74"/>
-      <c r="C123" s="79"/>
-      <c r="D123" s="80"/>
-      <c r="E123" s="79"/>
-      <c r="F123" s="80"/>
-      <c r="G123" s="38" t="s">
+      <c r="A123" s="134"/>
+      <c r="B123" s="135"/>
+      <c r="C123" s="140"/>
+      <c r="D123" s="141"/>
+      <c r="E123" s="140"/>
+      <c r="F123" s="141"/>
+      <c r="G123" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="H123" s="38"/>
-      <c r="I123" s="38"/>
-      <c r="J123" s="86"/>
+      <c r="H123" s="37"/>
+      <c r="I123" s="37"/>
+      <c r="J123" s="147"/>
     </row>
     <row r="124" spans="1:10">
-      <c r="A124" s="73"/>
-      <c r="B124" s="74"/>
-      <c r="C124" s="79"/>
-      <c r="D124" s="80"/>
-      <c r="E124" s="79"/>
-      <c r="F124" s="80"/>
-      <c r="G124" s="45" t="s">
+      <c r="A124" s="134"/>
+      <c r="B124" s="135"/>
+      <c r="C124" s="140"/>
+      <c r="D124" s="141"/>
+      <c r="E124" s="140"/>
+      <c r="F124" s="141"/>
+      <c r="G124" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="H124" s="45" t="s">
+      <c r="H124" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="I124" s="45"/>
-      <c r="J124" s="86"/>
+      <c r="I124" s="44"/>
+      <c r="J124" s="147"/>
     </row>
     <row r="125" spans="1:10">
-      <c r="A125" s="75"/>
-      <c r="B125" s="76"/>
-      <c r="C125" s="81"/>
-      <c r="D125" s="82"/>
-      <c r="E125" s="81"/>
-      <c r="F125" s="82"/>
-      <c r="G125" s="38">
+      <c r="A125" s="136"/>
+      <c r="B125" s="137"/>
+      <c r="C125" s="142"/>
+      <c r="D125" s="143"/>
+      <c r="E125" s="142"/>
+      <c r="F125" s="143"/>
+      <c r="G125" s="37">
         <v>43556</v>
       </c>
-      <c r="H125" s="38"/>
-      <c r="I125" s="34"/>
-      <c r="J125" s="87"/>
+      <c r="H125" s="37"/>
+      <c r="I125" s="33"/>
+      <c r="J125" s="148"/>
     </row>
     <row r="126" spans="1:10" ht="15" customHeight="1">
-      <c r="A126" s="71" t="s">
+      <c r="A126" s="132" t="s">
         <v>68</v>
       </c>
-      <c r="B126" s="72"/>
-      <c r="C126" s="77" t="s">
+      <c r="B126" s="133"/>
+      <c r="C126" s="138" t="s">
         <v>69</v>
       </c>
-      <c r="D126" s="78"/>
-      <c r="E126" s="77" t="s">
+      <c r="D126" s="139"/>
+      <c r="E126" s="138" t="s">
         <v>67</v>
       </c>
-      <c r="F126" s="78"/>
-      <c r="G126" s="83" t="s">
+      <c r="F126" s="139"/>
+      <c r="G126" s="144" t="s">
         <v>42</v>
       </c>
-      <c r="H126" s="84"/>
-      <c r="I126" s="44"/>
-      <c r="J126" s="85"/>
+      <c r="H126" s="145"/>
+      <c r="I126" s="43"/>
+      <c r="J126" s="146"/>
     </row>
     <row r="127" spans="1:10">
-      <c r="A127" s="73"/>
-      <c r="B127" s="74"/>
-      <c r="C127" s="79"/>
-      <c r="D127" s="80"/>
-      <c r="E127" s="79"/>
-      <c r="F127" s="80"/>
-      <c r="G127" s="45" t="s">
+      <c r="A127" s="134"/>
+      <c r="B127" s="135"/>
+      <c r="C127" s="140"/>
+      <c r="D127" s="141"/>
+      <c r="E127" s="140"/>
+      <c r="F127" s="141"/>
+      <c r="G127" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="H127" s="45" t="s">
+      <c r="H127" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="I127" s="45" t="s">
+      <c r="I127" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="J127" s="86"/>
+      <c r="J127" s="147"/>
     </row>
     <row r="128" spans="1:10">
-      <c r="A128" s="73"/>
-      <c r="B128" s="74"/>
-      <c r="C128" s="79"/>
-      <c r="D128" s="80"/>
-      <c r="E128" s="79"/>
-      <c r="F128" s="80"/>
-      <c r="G128" s="38" t="s">
+      <c r="A128" s="134"/>
+      <c r="B128" s="135"/>
+      <c r="C128" s="140"/>
+      <c r="D128" s="141"/>
+      <c r="E128" s="140"/>
+      <c r="F128" s="141"/>
+      <c r="G128" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="H128" s="38"/>
-      <c r="I128" s="38"/>
-      <c r="J128" s="86"/>
+      <c r="H128" s="37"/>
+      <c r="I128" s="37"/>
+      <c r="J128" s="147"/>
     </row>
     <row r="129" spans="1:10">
-      <c r="A129" s="73"/>
-      <c r="B129" s="74"/>
-      <c r="C129" s="79"/>
-      <c r="D129" s="80"/>
-      <c r="E129" s="79"/>
-      <c r="F129" s="80"/>
-      <c r="G129" s="45" t="s">
+      <c r="A129" s="134"/>
+      <c r="B129" s="135"/>
+      <c r="C129" s="140"/>
+      <c r="D129" s="141"/>
+      <c r="E129" s="140"/>
+      <c r="F129" s="141"/>
+      <c r="G129" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="H129" s="45" t="s">
+      <c r="H129" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="I129" s="45"/>
-      <c r="J129" s="86"/>
+      <c r="I129" s="44"/>
+      <c r="J129" s="147"/>
     </row>
     <row r="130" spans="1:10">
-      <c r="A130" s="75"/>
-      <c r="B130" s="76"/>
-      <c r="C130" s="81"/>
-      <c r="D130" s="82"/>
-      <c r="E130" s="81"/>
-      <c r="F130" s="82"/>
-      <c r="G130" s="38">
+      <c r="A130" s="136"/>
+      <c r="B130" s="137"/>
+      <c r="C130" s="142"/>
+      <c r="D130" s="143"/>
+      <c r="E130" s="142"/>
+      <c r="F130" s="143"/>
+      <c r="G130" s="37">
         <v>43565</v>
       </c>
-      <c r="H130" s="38"/>
-      <c r="I130" s="34"/>
-      <c r="J130" s="87"/>
+      <c r="H130" s="37"/>
+      <c r="I130" s="33"/>
+      <c r="J130" s="148"/>
     </row>
   </sheetData>
   <mergeCells count="145">
-    <mergeCell ref="A111:B115"/>
-    <mergeCell ref="C111:D115"/>
-    <mergeCell ref="E111:F115"/>
-    <mergeCell ref="G111:H111"/>
-    <mergeCell ref="J111:J115"/>
-    <mergeCell ref="A106:B110"/>
-    <mergeCell ref="C106:D110"/>
-    <mergeCell ref="E106:F110"/>
-    <mergeCell ref="G106:H106"/>
-    <mergeCell ref="J106:J110"/>
-    <mergeCell ref="A101:B105"/>
-    <mergeCell ref="C101:D105"/>
-    <mergeCell ref="E101:F105"/>
-    <mergeCell ref="G101:H101"/>
-    <mergeCell ref="J101:J105"/>
-    <mergeCell ref="A96:B100"/>
-    <mergeCell ref="C96:D100"/>
-    <mergeCell ref="E96:F100"/>
-    <mergeCell ref="G96:H96"/>
-    <mergeCell ref="J96:J100"/>
-    <mergeCell ref="A91:B95"/>
-    <mergeCell ref="C91:D95"/>
-    <mergeCell ref="E91:F95"/>
-    <mergeCell ref="G91:H91"/>
-    <mergeCell ref="J91:J95"/>
-    <mergeCell ref="A86:B90"/>
-    <mergeCell ref="C86:D90"/>
-    <mergeCell ref="E86:F90"/>
-    <mergeCell ref="G86:H86"/>
-    <mergeCell ref="J86:J90"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A126:B130"/>
+    <mergeCell ref="C126:D130"/>
+    <mergeCell ref="E126:F130"/>
+    <mergeCell ref="G126:H126"/>
+    <mergeCell ref="J126:J130"/>
+    <mergeCell ref="A116:B120"/>
+    <mergeCell ref="C116:D120"/>
+    <mergeCell ref="E116:F120"/>
+    <mergeCell ref="G116:H116"/>
+    <mergeCell ref="J116:J120"/>
+    <mergeCell ref="A121:B125"/>
+    <mergeCell ref="C121:D125"/>
+    <mergeCell ref="E121:F125"/>
+    <mergeCell ref="G121:H121"/>
+    <mergeCell ref="J121:J125"/>
+    <mergeCell ref="A65:B69"/>
+    <mergeCell ref="C65:D69"/>
+    <mergeCell ref="E65:F69"/>
+    <mergeCell ref="G65:H65"/>
+    <mergeCell ref="J65:J69"/>
+    <mergeCell ref="A9:B13"/>
+    <mergeCell ref="C9:D13"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="J9:J13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="A7:J7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="A15:B19"/>
+    <mergeCell ref="C15:D19"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="J15:J19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="A21:B25"/>
+    <mergeCell ref="C21:D25"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="J21:J25"/>
+    <mergeCell ref="J27:J31"/>
+    <mergeCell ref="A59:B63"/>
+    <mergeCell ref="C59:D63"/>
+    <mergeCell ref="E59:F63"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="J59:J63"/>
+    <mergeCell ref="J53:J57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="A53:B57"/>
+    <mergeCell ref="C53:D57"/>
+    <mergeCell ref="E53:F57"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="A33:B37"/>
+    <mergeCell ref="C33:D37"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="A27:B31"/>
+    <mergeCell ref="C27:D31"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="A39:B43"/>
+    <mergeCell ref="C39:D43"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="J39:J43"/>
+    <mergeCell ref="J33:J37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="G38:H38"/>
     <mergeCell ref="A81:B85"/>
     <mergeCell ref="C81:D85"/>
     <mergeCell ref="E81:F85"/>
@@ -4184,97 +4271,36 @@
     <mergeCell ref="C64:D64"/>
     <mergeCell ref="E64:F64"/>
     <mergeCell ref="G64:H64"/>
-    <mergeCell ref="A39:B43"/>
-    <mergeCell ref="C39:D43"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="J39:J43"/>
-    <mergeCell ref="J33:J37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="A33:B37"/>
-    <mergeCell ref="C33:D37"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="A27:B31"/>
-    <mergeCell ref="C27:D31"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="J27:J31"/>
-    <mergeCell ref="A59:B63"/>
-    <mergeCell ref="C59:D63"/>
-    <mergeCell ref="E59:F63"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="J59:J63"/>
-    <mergeCell ref="J53:J57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="A53:B57"/>
-    <mergeCell ref="C53:D57"/>
-    <mergeCell ref="E53:F57"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="A15:B19"/>
-    <mergeCell ref="C15:D19"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="J15:J19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="A21:B25"/>
-    <mergeCell ref="C21:D25"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="J21:J25"/>
-    <mergeCell ref="A9:B13"/>
-    <mergeCell ref="C9:D13"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="J9:J13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="A7:J7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A126:B130"/>
-    <mergeCell ref="C126:D130"/>
-    <mergeCell ref="E126:F130"/>
-    <mergeCell ref="G126:H126"/>
-    <mergeCell ref="J126:J130"/>
-    <mergeCell ref="A116:B120"/>
-    <mergeCell ref="C116:D120"/>
-    <mergeCell ref="E116:F120"/>
-    <mergeCell ref="G116:H116"/>
-    <mergeCell ref="J116:J120"/>
-    <mergeCell ref="A121:B125"/>
-    <mergeCell ref="C121:D125"/>
-    <mergeCell ref="E121:F125"/>
-    <mergeCell ref="G121:H121"/>
-    <mergeCell ref="J121:J125"/>
-    <mergeCell ref="A65:B69"/>
-    <mergeCell ref="C65:D69"/>
-    <mergeCell ref="E65:F69"/>
-    <mergeCell ref="G65:H65"/>
-    <mergeCell ref="J65:J69"/>
+    <mergeCell ref="A91:B95"/>
+    <mergeCell ref="C91:D95"/>
+    <mergeCell ref="E91:F95"/>
+    <mergeCell ref="G91:H91"/>
+    <mergeCell ref="J91:J95"/>
+    <mergeCell ref="A86:B90"/>
+    <mergeCell ref="C86:D90"/>
+    <mergeCell ref="E86:F90"/>
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="J86:J90"/>
+    <mergeCell ref="A101:B105"/>
+    <mergeCell ref="C101:D105"/>
+    <mergeCell ref="E101:F105"/>
+    <mergeCell ref="G101:H101"/>
+    <mergeCell ref="J101:J105"/>
+    <mergeCell ref="A96:B100"/>
+    <mergeCell ref="C96:D100"/>
+    <mergeCell ref="E96:F100"/>
+    <mergeCell ref="G96:H96"/>
+    <mergeCell ref="J96:J100"/>
+    <mergeCell ref="A111:B115"/>
+    <mergeCell ref="C111:D115"/>
+    <mergeCell ref="E111:F115"/>
+    <mergeCell ref="G111:H111"/>
+    <mergeCell ref="J111:J115"/>
+    <mergeCell ref="A106:B110"/>
+    <mergeCell ref="C106:D110"/>
+    <mergeCell ref="E106:F110"/>
+    <mergeCell ref="G106:H106"/>
+    <mergeCell ref="J106:J110"/>
   </mergeCells>
   <conditionalFormatting sqref="G58:H58 G64:H64 G70:H70">
     <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="equal">
@@ -4288,7 +4314,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72F20A2E-4930-4DAB-83A3-CDEE0FC48501}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI44"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
@@ -4297,1147 +4323,1147 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.42578125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="1.5703125" style="96" customWidth="1"/>
-    <col min="2" max="24" width="6.42578125" style="96"/>
-    <col min="25" max="25" width="1.5703125" style="96" customWidth="1"/>
-    <col min="26" max="16384" width="6.42578125" style="96"/>
+    <col min="1" max="1" width="1.5703125" style="64" customWidth="1"/>
+    <col min="2" max="24" width="6.42578125" style="64"/>
+    <col min="25" max="25" width="1.5703125" style="64" customWidth="1"/>
+    <col min="26" max="16384" width="6.42578125" style="64"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="7.5" customHeight="1">
-      <c r="B1" s="97"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="101"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="69"/>
     </row>
     <row r="2" spans="1:24" ht="5.25" customHeight="1">
-      <c r="B2" s="102"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="106"/>
-      <c r="K2" s="106"/>
-      <c r="L2" s="106"/>
-      <c r="M2" s="106"/>
-      <c r="N2" s="106"/>
-      <c r="O2" s="106"/>
-      <c r="P2" s="106"/>
-      <c r="Q2" s="106"/>
-      <c r="R2" s="106"/>
-      <c r="S2" s="106"/>
-      <c r="T2" s="106"/>
-      <c r="U2" s="106"/>
-      <c r="V2" s="107"/>
-      <c r="W2" s="106"/>
-      <c r="X2" s="108"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="74"/>
+      <c r="M2" s="74"/>
+      <c r="N2" s="74"/>
+      <c r="O2" s="74"/>
+      <c r="P2" s="74"/>
+      <c r="Q2" s="74"/>
+      <c r="R2" s="74"/>
+      <c r="S2" s="74"/>
+      <c r="T2" s="74"/>
+      <c r="U2" s="74"/>
+      <c r="V2" s="75"/>
+      <c r="W2" s="74"/>
+      <c r="X2" s="76"/>
     </row>
     <row r="3" spans="1:24">
-      <c r="A3" s="96" t="s">
+      <c r="A3" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="109"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="112"/>
-      <c r="H3" s="112"/>
-      <c r="I3" s="112"/>
-      <c r="J3" s="112"/>
-      <c r="K3" s="112"/>
-      <c r="L3" s="112"/>
-      <c r="M3" s="112"/>
-      <c r="N3" s="113"/>
-      <c r="O3" s="112"/>
-      <c r="P3" s="112"/>
-      <c r="Q3" s="112"/>
-      <c r="R3" s="112"/>
-      <c r="S3" s="112"/>
-      <c r="T3" s="112"/>
-      <c r="U3" s="112"/>
-      <c r="V3" s="114"/>
-      <c r="W3" s="112"/>
-      <c r="X3" s="115"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="80"/>
+      <c r="N3" s="81"/>
+      <c r="O3" s="80"/>
+      <c r="P3" s="80"/>
+      <c r="Q3" s="80"/>
+      <c r="R3" s="80"/>
+      <c r="S3" s="80"/>
+      <c r="T3" s="80"/>
+      <c r="U3" s="80"/>
+      <c r="V3" s="82"/>
+      <c r="W3" s="80"/>
+      <c r="X3" s="83"/>
     </row>
     <row r="4" spans="1:24">
-      <c r="B4" s="109"/>
-      <c r="C4" s="98"/>
-      <c r="D4" s="98"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="111"/>
-      <c r="G4" s="112"/>
-      <c r="H4" s="112"/>
-      <c r="I4" s="112"/>
-      <c r="J4" s="112"/>
-      <c r="K4" s="112"/>
-      <c r="L4" s="112"/>
-      <c r="M4" s="112"/>
-      <c r="N4" s="112"/>
-      <c r="O4" s="112"/>
-      <c r="P4" s="112"/>
-      <c r="Q4" s="112"/>
-      <c r="R4" s="112"/>
-      <c r="S4" s="112"/>
-      <c r="T4" s="112"/>
-      <c r="U4" s="112"/>
-      <c r="V4" s="98"/>
-      <c r="W4" s="112"/>
-      <c r="X4" s="115"/>
+      <c r="B4" s="77"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="80"/>
+      <c r="L4" s="80"/>
+      <c r="M4" s="80"/>
+      <c r="N4" s="80"/>
+      <c r="O4" s="80"/>
+      <c r="P4" s="80"/>
+      <c r="Q4" s="80"/>
+      <c r="R4" s="80"/>
+      <c r="S4" s="80"/>
+      <c r="T4" s="80"/>
+      <c r="U4" s="80"/>
+      <c r="V4" s="66"/>
+      <c r="W4" s="80"/>
+      <c r="X4" s="83"/>
     </row>
     <row r="5" spans="1:24">
-      <c r="B5" s="109"/>
-      <c r="C5" s="98"/>
-      <c r="D5" s="98"/>
-      <c r="E5" s="110"/>
-      <c r="F5" s="111"/>
-      <c r="G5" s="112"/>
-      <c r="H5" s="112"/>
-      <c r="I5" s="112"/>
-      <c r="J5" s="112"/>
-      <c r="K5" s="112"/>
-      <c r="L5" s="112"/>
-      <c r="M5" s="112"/>
-      <c r="N5" s="112"/>
-      <c r="T5" s="112"/>
-      <c r="U5" s="112"/>
-      <c r="V5" s="112"/>
-      <c r="W5" s="112"/>
-      <c r="X5" s="115"/>
+      <c r="B5" s="77"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="80"/>
+      <c r="J5" s="80"/>
+      <c r="K5" s="80"/>
+      <c r="L5" s="80"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="T5" s="80"/>
+      <c r="U5" s="80"/>
+      <c r="V5" s="80"/>
+      <c r="W5" s="80"/>
+      <c r="X5" s="83"/>
     </row>
     <row r="6" spans="1:24" ht="14.25" customHeight="1">
-      <c r="B6" s="116"/>
-      <c r="C6" s="117"/>
-      <c r="D6" s="117"/>
-      <c r="E6" s="117"/>
-      <c r="F6" s="112"/>
-      <c r="G6" s="117"/>
-      <c r="H6" s="117"/>
-      <c r="I6" s="117"/>
-      <c r="J6" s="117"/>
-      <c r="O6" s="118" t="s">
+      <c r="B6" s="84"/>
+      <c r="C6" s="85"/>
+      <c r="D6" s="85"/>
+      <c r="E6" s="85"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="85"/>
+      <c r="H6" s="85"/>
+      <c r="I6" s="85"/>
+      <c r="J6" s="85"/>
+      <c r="O6" s="164" t="s">
         <v>74</v>
       </c>
-      <c r="P6" s="118"/>
-      <c r="Q6" s="118"/>
-      <c r="R6" s="118"/>
-      <c r="S6" s="118"/>
-      <c r="U6" s="112"/>
-      <c r="V6" s="112"/>
-      <c r="W6" s="112"/>
-      <c r="X6" s="115"/>
-    </row>
-    <row r="7" spans="1:24" s="111" customFormat="1" ht="14.25" customHeight="1">
-      <c r="B7" s="119"/>
-      <c r="E7" s="97"/>
-      <c r="G7" s="117"/>
-      <c r="O7" s="118"/>
-      <c r="P7" s="118"/>
-      <c r="Q7" s="118"/>
-      <c r="R7" s="118"/>
-      <c r="S7" s="118"/>
-      <c r="X7" s="120"/>
-    </row>
-    <row r="8" spans="1:24" s="121" customFormat="1" ht="14.25" customHeight="1">
-      <c r="B8" s="122"/>
-      <c r="C8" s="123"/>
-      <c r="J8" s="123"/>
-      <c r="K8" s="123"/>
-      <c r="L8" s="124"/>
-      <c r="X8" s="125"/>
+      <c r="P6" s="164"/>
+      <c r="Q6" s="164"/>
+      <c r="R6" s="164"/>
+      <c r="S6" s="164"/>
+      <c r="U6" s="80"/>
+      <c r="V6" s="80"/>
+      <c r="W6" s="80"/>
+      <c r="X6" s="83"/>
+    </row>
+    <row r="7" spans="1:24" s="79" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B7" s="86"/>
+      <c r="E7" s="65"/>
+      <c r="G7" s="85"/>
+      <c r="O7" s="164"/>
+      <c r="P7" s="164"/>
+      <c r="Q7" s="164"/>
+      <c r="R7" s="164"/>
+      <c r="S7" s="164"/>
+      <c r="X7" s="87"/>
+    </row>
+    <row r="8" spans="1:24" s="88" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B8" s="89"/>
+      <c r="C8" s="90"/>
+      <c r="J8" s="90"/>
+      <c r="K8" s="90"/>
+      <c r="L8" s="91"/>
+      <c r="X8" s="92"/>
     </row>
     <row r="9" spans="1:24" ht="14.25" customHeight="1">
-      <c r="B9" s="126"/>
-      <c r="C9" s="112"/>
-      <c r="D9" s="127" t="s">
+      <c r="B9" s="93"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="94" t="s">
         <v>75</v>
       </c>
-      <c r="E9" s="128" t="s">
+      <c r="E9" s="95" t="s">
         <v>76</v>
       </c>
-      <c r="F9" s="128"/>
-      <c r="G9" s="128"/>
-      <c r="H9" s="129"/>
-      <c r="X9" s="115"/>
+      <c r="F9" s="95"/>
+      <c r="G9" s="95"/>
+      <c r="H9" s="96"/>
+      <c r="X9" s="83"/>
     </row>
     <row r="10" spans="1:24" ht="14.25" customHeight="1">
-      <c r="B10" s="126"/>
-      <c r="C10" s="112"/>
-      <c r="D10" s="127" t="s">
+      <c r="B10" s="93"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="94" t="s">
         <v>77</v>
       </c>
-      <c r="E10" s="128"/>
-      <c r="F10" s="128"/>
-      <c r="G10" s="128"/>
-      <c r="H10" s="129"/>
-      <c r="I10" s="112"/>
-      <c r="J10" s="112"/>
-      <c r="K10" s="112"/>
-      <c r="L10" s="130" t="s">
+      <c r="E10" s="95"/>
+      <c r="F10" s="95"/>
+      <c r="G10" s="95"/>
+      <c r="H10" s="96"/>
+      <c r="I10" s="80"/>
+      <c r="J10" s="80"/>
+      <c r="K10" s="80"/>
+      <c r="L10" s="97" t="s">
         <v>78</v>
       </c>
-      <c r="O10" s="117"/>
-      <c r="P10" s="117"/>
-      <c r="Q10" s="117"/>
-      <c r="R10" s="117"/>
-      <c r="S10" s="117"/>
-      <c r="V10" s="131"/>
-      <c r="X10" s="115"/>
+      <c r="O10" s="85"/>
+      <c r="P10" s="85"/>
+      <c r="Q10" s="85"/>
+      <c r="R10" s="85"/>
+      <c r="S10" s="85"/>
+      <c r="V10" s="98"/>
+      <c r="X10" s="83"/>
     </row>
     <row r="11" spans="1:24" ht="14.25" customHeight="1">
-      <c r="B11" s="126"/>
-      <c r="C11" s="112"/>
-      <c r="D11" s="124" t="s">
+      <c r="B11" s="93"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="91" t="s">
         <v>79</v>
       </c>
-      <c r="E11" s="132">
+      <c r="E11" s="165">
         <f ca="1">TODAY()</f>
         <v>43444</v>
       </c>
-      <c r="F11" s="132"/>
-      <c r="G11" s="132"/>
-      <c r="H11" s="129"/>
-      <c r="L11" s="133" t="s">
+      <c r="F11" s="165"/>
+      <c r="G11" s="165"/>
+      <c r="H11" s="96"/>
+      <c r="L11" s="99" t="s">
         <v>80</v>
       </c>
-      <c r="M11" s="133"/>
-      <c r="N11" s="133"/>
-      <c r="O11" s="133" t="s">
+      <c r="M11" s="99"/>
+      <c r="N11" s="99"/>
+      <c r="O11" s="99" t="s">
         <v>81</v>
       </c>
-      <c r="P11" s="133"/>
-      <c r="Q11" s="133" t="s">
+      <c r="P11" s="99"/>
+      <c r="Q11" s="99" t="s">
         <v>82</v>
       </c>
-      <c r="R11" s="133"/>
-      <c r="S11" s="133" t="s">
+      <c r="R11" s="99"/>
+      <c r="S11" s="99" t="s">
         <v>23</v>
       </c>
-      <c r="T11" s="133"/>
-      <c r="U11" s="133" t="s">
+      <c r="T11" s="99"/>
+      <c r="U11" s="99" t="s">
         <v>83</v>
       </c>
-      <c r="V11" s="133"/>
-      <c r="X11" s="115"/>
+      <c r="V11" s="99"/>
+      <c r="X11" s="83"/>
     </row>
     <row r="12" spans="1:24">
-      <c r="B12" s="126"/>
-      <c r="L12" s="134" t="s">
+      <c r="B12" s="93"/>
+      <c r="L12" s="100" t="s">
         <v>84</v>
       </c>
-      <c r="M12" s="134"/>
-      <c r="N12" s="134"/>
-      <c r="O12" s="135">
+      <c r="M12" s="100"/>
+      <c r="N12" s="100"/>
+      <c r="O12" s="101">
         <v>2</v>
       </c>
-      <c r="P12" s="135"/>
-      <c r="Q12" s="136">
+      <c r="P12" s="101"/>
+      <c r="Q12" s="102">
         <v>3</v>
       </c>
-      <c r="R12" s="136"/>
-      <c r="S12" s="137">
+      <c r="R12" s="102"/>
+      <c r="S12" s="103">
         <v>4</v>
       </c>
-      <c r="T12" s="137"/>
-      <c r="U12" s="138">
+      <c r="T12" s="103"/>
+      <c r="U12" s="104">
         <f t="shared" ref="U12:U29" si="0">SUM(O12:T12)</f>
         <v>9</v>
       </c>
-      <c r="V12" s="138"/>
-      <c r="X12" s="115"/>
+      <c r="V12" s="104"/>
+      <c r="X12" s="83"/>
     </row>
     <row r="13" spans="1:24">
-      <c r="B13" s="126"/>
-      <c r="L13" s="134">
+      <c r="B13" s="93"/>
+      <c r="L13" s="100">
         <v>2</v>
       </c>
-      <c r="M13" s="134"/>
-      <c r="N13" s="134"/>
-      <c r="O13" s="135">
+      <c r="M13" s="100"/>
+      <c r="N13" s="100"/>
+      <c r="O13" s="101">
         <v>22</v>
       </c>
-      <c r="P13" s="135"/>
-      <c r="Q13" s="136">
+      <c r="P13" s="101"/>
+      <c r="Q13" s="102">
         <v>22</v>
       </c>
-      <c r="R13" s="136"/>
-      <c r="S13" s="137">
+      <c r="R13" s="102"/>
+      <c r="S13" s="103">
         <v>22</v>
       </c>
-      <c r="T13" s="137"/>
-      <c r="U13" s="138">
+      <c r="T13" s="103"/>
+      <c r="U13" s="104">
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
-      <c r="V13" s="138"/>
-      <c r="X13" s="115"/>
+      <c r="V13" s="104"/>
+      <c r="X13" s="83"/>
     </row>
     <row r="14" spans="1:24">
-      <c r="B14" s="139"/>
-      <c r="L14" s="140">
+      <c r="B14" s="105"/>
+      <c r="L14" s="106">
         <v>3</v>
       </c>
-      <c r="M14" s="140"/>
-      <c r="N14" s="140"/>
-      <c r="O14" s="135">
+      <c r="M14" s="106"/>
+      <c r="N14" s="106"/>
+      <c r="O14" s="101">
         <v>32</v>
       </c>
-      <c r="P14" s="135"/>
-      <c r="Q14" s="136">
+      <c r="P14" s="101"/>
+      <c r="Q14" s="102">
         <v>32</v>
       </c>
-      <c r="R14" s="136"/>
-      <c r="S14" s="137">
+      <c r="R14" s="102"/>
+      <c r="S14" s="103">
         <v>32</v>
       </c>
-      <c r="T14" s="137"/>
-      <c r="U14" s="138">
+      <c r="T14" s="103"/>
+      <c r="U14" s="104">
         <f t="shared" si="0"/>
         <v>96</v>
       </c>
-      <c r="V14" s="138"/>
-      <c r="X14" s="115"/>
+      <c r="V14" s="104"/>
+      <c r="X14" s="83"/>
     </row>
     <row r="15" spans="1:24">
-      <c r="B15" s="126"/>
-      <c r="D15" s="127" t="s">
+      <c r="B15" s="93"/>
+      <c r="D15" s="94" t="s">
         <v>85</v>
       </c>
-      <c r="E15" s="141"/>
-      <c r="F15" s="141"/>
-      <c r="G15" s="141"/>
-      <c r="H15" s="141"/>
-      <c r="L15" s="134">
+      <c r="E15" s="107"/>
+      <c r="F15" s="107"/>
+      <c r="G15" s="107"/>
+      <c r="H15" s="107"/>
+      <c r="L15" s="100">
         <v>4</v>
       </c>
-      <c r="M15" s="134"/>
-      <c r="N15" s="134"/>
-      <c r="O15" s="135">
+      <c r="M15" s="100"/>
+      <c r="N15" s="100"/>
+      <c r="O15" s="101">
         <v>42</v>
       </c>
-      <c r="P15" s="135"/>
-      <c r="Q15" s="136">
+      <c r="P15" s="101"/>
+      <c r="Q15" s="102">
         <v>42</v>
       </c>
-      <c r="R15" s="136"/>
-      <c r="S15" s="137">
+      <c r="R15" s="102"/>
+      <c r="S15" s="103">
         <v>42</v>
       </c>
-      <c r="T15" s="137"/>
-      <c r="U15" s="138">
+      <c r="T15" s="103"/>
+      <c r="U15" s="104">
         <f t="shared" si="0"/>
         <v>126</v>
       </c>
-      <c r="V15" s="138"/>
-      <c r="X15" s="115"/>
+      <c r="V15" s="104"/>
+      <c r="X15" s="83"/>
     </row>
     <row r="16" spans="1:24">
-      <c r="B16" s="126"/>
-      <c r="D16" s="112"/>
-      <c r="E16" s="142"/>
-      <c r="F16" s="142"/>
-      <c r="G16" s="142"/>
-      <c r="H16" s="142"/>
-      <c r="L16" s="140">
+      <c r="B16" s="93"/>
+      <c r="D16" s="80"/>
+      <c r="E16" s="108"/>
+      <c r="F16" s="108"/>
+      <c r="G16" s="108"/>
+      <c r="H16" s="108"/>
+      <c r="L16" s="106">
         <v>5</v>
       </c>
-      <c r="M16" s="140"/>
-      <c r="N16" s="140"/>
-      <c r="O16" s="135">
+      <c r="M16" s="106"/>
+      <c r="N16" s="106"/>
+      <c r="O16" s="101">
         <v>52</v>
       </c>
-      <c r="P16" s="135"/>
-      <c r="Q16" s="136">
+      <c r="P16" s="101"/>
+      <c r="Q16" s="102">
         <v>52</v>
       </c>
-      <c r="R16" s="136"/>
-      <c r="S16" s="137">
+      <c r="R16" s="102"/>
+      <c r="S16" s="103">
         <v>52</v>
       </c>
-      <c r="T16" s="137"/>
-      <c r="U16" s="138">
+      <c r="T16" s="103"/>
+      <c r="U16" s="104">
         <f t="shared" si="0"/>
         <v>156</v>
       </c>
-      <c r="V16" s="138"/>
-      <c r="X16" s="115"/>
+      <c r="V16" s="104"/>
+      <c r="X16" s="83"/>
     </row>
     <row r="17" spans="2:35">
-      <c r="B17" s="126"/>
-      <c r="D17" s="112"/>
-      <c r="E17" s="142"/>
-      <c r="F17" s="142"/>
-      <c r="G17" s="142"/>
-      <c r="H17" s="142"/>
-      <c r="L17" s="134">
+      <c r="B17" s="93"/>
+      <c r="D17" s="80"/>
+      <c r="E17" s="108"/>
+      <c r="F17" s="108"/>
+      <c r="G17" s="108"/>
+      <c r="H17" s="108"/>
+      <c r="L17" s="100">
         <v>6</v>
       </c>
-      <c r="M17" s="134"/>
-      <c r="N17" s="134"/>
-      <c r="O17" s="135">
+      <c r="M17" s="100"/>
+      <c r="N17" s="100"/>
+      <c r="O17" s="101">
         <v>62</v>
       </c>
-      <c r="P17" s="135"/>
-      <c r="Q17" s="136">
+      <c r="P17" s="101"/>
+      <c r="Q17" s="102">
         <v>62</v>
       </c>
-      <c r="R17" s="136"/>
-      <c r="S17" s="137">
+      <c r="R17" s="102"/>
+      <c r="S17" s="103">
         <v>62</v>
       </c>
-      <c r="T17" s="137"/>
-      <c r="U17" s="138">
+      <c r="T17" s="103"/>
+      <c r="U17" s="104">
         <f t="shared" si="0"/>
         <v>186</v>
       </c>
-      <c r="V17" s="138"/>
-      <c r="X17" s="115"/>
+      <c r="V17" s="104"/>
+      <c r="X17" s="83"/>
     </row>
     <row r="18" spans="2:35">
-      <c r="B18" s="126"/>
-      <c r="D18" s="112"/>
-      <c r="E18" s="142"/>
-      <c r="F18" s="142"/>
-      <c r="G18" s="142"/>
-      <c r="H18" s="142"/>
-      <c r="L18" s="143">
+      <c r="B18" s="93"/>
+      <c r="D18" s="80"/>
+      <c r="E18" s="108"/>
+      <c r="F18" s="108"/>
+      <c r="G18" s="108"/>
+      <c r="H18" s="108"/>
+      <c r="L18" s="109">
         <v>7</v>
       </c>
-      <c r="M18" s="143"/>
-      <c r="N18" s="143"/>
-      <c r="O18" s="135">
+      <c r="M18" s="109"/>
+      <c r="N18" s="109"/>
+      <c r="O18" s="101">
         <v>72</v>
       </c>
-      <c r="P18" s="135"/>
-      <c r="Q18" s="136">
+      <c r="P18" s="101"/>
+      <c r="Q18" s="102">
         <v>72</v>
       </c>
-      <c r="R18" s="136"/>
-      <c r="S18" s="137">
+      <c r="R18" s="102"/>
+      <c r="S18" s="103">
         <v>72</v>
       </c>
-      <c r="T18" s="137"/>
-      <c r="U18" s="138">
+      <c r="T18" s="103"/>
+      <c r="U18" s="104">
         <f t="shared" si="0"/>
         <v>216</v>
       </c>
-      <c r="V18" s="138"/>
-      <c r="X18" s="115"/>
+      <c r="V18" s="104"/>
+      <c r="X18" s="83"/>
     </row>
     <row r="19" spans="2:35">
-      <c r="B19" s="126"/>
-      <c r="D19" s="112"/>
-      <c r="E19" s="142"/>
-      <c r="F19" s="142"/>
-      <c r="G19" s="142"/>
-      <c r="H19" s="142"/>
-      <c r="L19" s="143">
+      <c r="B19" s="93"/>
+      <c r="D19" s="80"/>
+      <c r="E19" s="108"/>
+      <c r="F19" s="108"/>
+      <c r="G19" s="108"/>
+      <c r="H19" s="108"/>
+      <c r="L19" s="109">
         <v>8</v>
       </c>
-      <c r="M19" s="143"/>
-      <c r="N19" s="143"/>
-      <c r="O19" s="135">
+      <c r="M19" s="109"/>
+      <c r="N19" s="109"/>
+      <c r="O19" s="101">
         <v>12</v>
       </c>
-      <c r="P19" s="135"/>
-      <c r="Q19" s="136">
+      <c r="P19" s="101"/>
+      <c r="Q19" s="102">
         <v>72</v>
       </c>
-      <c r="R19" s="136"/>
-      <c r="S19" s="137">
+      <c r="R19" s="102"/>
+      <c r="S19" s="103">
         <v>54</v>
       </c>
-      <c r="T19" s="137"/>
-      <c r="U19" s="138">
+      <c r="T19" s="103"/>
+      <c r="U19" s="104">
         <f t="shared" si="0"/>
         <v>138</v>
       </c>
-      <c r="V19" s="138"/>
-      <c r="W19" s="144"/>
-      <c r="X19" s="115"/>
+      <c r="V19" s="104"/>
+      <c r="W19" s="110"/>
+      <c r="X19" s="83"/>
     </row>
     <row r="20" spans="2:35">
-      <c r="B20" s="126"/>
-      <c r="L20" s="134">
+      <c r="B20" s="93"/>
+      <c r="L20" s="100">
         <v>9</v>
       </c>
-      <c r="M20" s="134"/>
-      <c r="N20" s="134"/>
-      <c r="O20" s="135">
+      <c r="M20" s="100"/>
+      <c r="N20" s="100"/>
+      <c r="O20" s="101">
         <v>83</v>
       </c>
-      <c r="P20" s="135"/>
-      <c r="Q20" s="136">
+      <c r="P20" s="101"/>
+      <c r="Q20" s="102">
         <v>57</v>
       </c>
-      <c r="R20" s="136"/>
-      <c r="S20" s="137">
+      <c r="R20" s="102"/>
+      <c r="S20" s="103">
         <v>72</v>
       </c>
-      <c r="T20" s="137"/>
-      <c r="U20" s="138">
+      <c r="T20" s="103"/>
+      <c r="U20" s="104">
         <f t="shared" si="0"/>
         <v>212</v>
       </c>
-      <c r="V20" s="138"/>
-      <c r="W20" s="131"/>
-      <c r="X20" s="115"/>
+      <c r="V20" s="104"/>
+      <c r="W20" s="98"/>
+      <c r="X20" s="83"/>
     </row>
     <row r="21" spans="2:35">
-      <c r="B21" s="126"/>
-      <c r="C21" s="112"/>
-      <c r="L21" s="145">
+      <c r="B21" s="93"/>
+      <c r="C21" s="80"/>
+      <c r="L21" s="111">
         <v>10</v>
       </c>
-      <c r="M21" s="145"/>
-      <c r="N21" s="145"/>
-      <c r="O21" s="135">
+      <c r="M21" s="111"/>
+      <c r="N21" s="111"/>
+      <c r="O21" s="101">
         <v>53</v>
       </c>
-      <c r="P21" s="135"/>
-      <c r="Q21" s="136">
+      <c r="P21" s="101"/>
+      <c r="Q21" s="102">
         <v>63</v>
       </c>
-      <c r="R21" s="136"/>
-      <c r="S21" s="137">
+      <c r="R21" s="102"/>
+      <c r="S21" s="103">
         <v>35</v>
       </c>
-      <c r="T21" s="137"/>
-      <c r="U21" s="138">
+      <c r="T21" s="103"/>
+      <c r="U21" s="104">
         <f t="shared" si="0"/>
         <v>151</v>
       </c>
-      <c r="V21" s="138"/>
-      <c r="X21" s="115"/>
+      <c r="V21" s="104"/>
+      <c r="X21" s="83"/>
     </row>
     <row r="22" spans="2:35">
-      <c r="B22" s="109"/>
-      <c r="C22" s="97"/>
-      <c r="D22" s="127" t="s">
+      <c r="B22" s="77"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="94" t="s">
         <v>86</v>
       </c>
-      <c r="E22" s="141"/>
-      <c r="F22" s="141"/>
-      <c r="G22" s="141"/>
-      <c r="H22" s="141"/>
-      <c r="L22" s="143">
+      <c r="E22" s="107"/>
+      <c r="F22" s="107"/>
+      <c r="G22" s="107"/>
+      <c r="H22" s="107"/>
+      <c r="L22" s="109">
         <v>11</v>
       </c>
-      <c r="M22" s="143"/>
-      <c r="N22" s="143"/>
-      <c r="O22" s="135">
+      <c r="M22" s="109"/>
+      <c r="N22" s="109"/>
+      <c r="O22" s="101">
         <v>53</v>
       </c>
-      <c r="P22" s="135"/>
-      <c r="Q22" s="136">
+      <c r="P22" s="101"/>
+      <c r="Q22" s="102">
         <v>57</v>
       </c>
-      <c r="R22" s="136"/>
-      <c r="S22" s="137">
+      <c r="R22" s="102"/>
+      <c r="S22" s="103">
         <v>57</v>
       </c>
-      <c r="T22" s="137"/>
-      <c r="U22" s="138">
+      <c r="T22" s="103"/>
+      <c r="U22" s="104">
         <f t="shared" si="0"/>
         <v>167</v>
       </c>
-      <c r="V22" s="138"/>
-      <c r="W22" s="111"/>
-      <c r="X22" s="120"/>
-    </row>
-    <row r="23" spans="2:35" s="111" customFormat="1">
-      <c r="B23" s="119"/>
-      <c r="D23" s="112"/>
-      <c r="E23" s="142"/>
-      <c r="F23" s="142"/>
-      <c r="G23" s="142"/>
-      <c r="H23" s="142"/>
-      <c r="L23" s="134">
+      <c r="V22" s="104"/>
+      <c r="W22" s="79"/>
+      <c r="X22" s="87"/>
+    </row>
+    <row r="23" spans="2:35" s="79" customFormat="1">
+      <c r="B23" s="86"/>
+      <c r="D23" s="80"/>
+      <c r="E23" s="108"/>
+      <c r="F23" s="108"/>
+      <c r="G23" s="108"/>
+      <c r="H23" s="108"/>
+      <c r="L23" s="100">
         <v>12</v>
       </c>
-      <c r="M23" s="134"/>
-      <c r="N23" s="134"/>
-      <c r="O23" s="135">
+      <c r="M23" s="100"/>
+      <c r="N23" s="100"/>
+      <c r="O23" s="101">
         <v>74</v>
       </c>
-      <c r="P23" s="135"/>
-      <c r="Q23" s="136">
+      <c r="P23" s="101"/>
+      <c r="Q23" s="102">
         <v>79</v>
       </c>
-      <c r="R23" s="136"/>
-      <c r="S23" s="137">
+      <c r="R23" s="102"/>
+      <c r="S23" s="103">
         <v>56</v>
       </c>
-      <c r="T23" s="137"/>
-      <c r="U23" s="138">
+      <c r="T23" s="103"/>
+      <c r="U23" s="104">
         <f t="shared" si="0"/>
         <v>209</v>
       </c>
-      <c r="V23" s="138"/>
-      <c r="W23" s="146"/>
-      <c r="X23" s="120"/>
-    </row>
-    <row r="24" spans="2:35" s="111" customFormat="1">
-      <c r="B24" s="119"/>
-      <c r="D24" s="112"/>
-      <c r="E24" s="142"/>
-      <c r="F24" s="142"/>
-      <c r="G24" s="142"/>
-      <c r="H24" s="142"/>
-      <c r="L24" s="145">
+      <c r="V23" s="104"/>
+      <c r="W23" s="112"/>
+      <c r="X23" s="87"/>
+    </row>
+    <row r="24" spans="2:35" s="79" customFormat="1">
+      <c r="B24" s="86"/>
+      <c r="D24" s="80"/>
+      <c r="E24" s="108"/>
+      <c r="F24" s="108"/>
+      <c r="G24" s="108"/>
+      <c r="H24" s="108"/>
+      <c r="L24" s="111">
         <v>13</v>
       </c>
-      <c r="M24" s="145"/>
-      <c r="N24" s="145"/>
-      <c r="O24" s="135">
+      <c r="M24" s="111"/>
+      <c r="N24" s="111"/>
+      <c r="O24" s="101">
         <v>89</v>
       </c>
-      <c r="P24" s="135"/>
-      <c r="Q24" s="136">
+      <c r="P24" s="101"/>
+      <c r="Q24" s="102">
         <v>68</v>
       </c>
-      <c r="R24" s="136"/>
-      <c r="S24" s="137">
+      <c r="R24" s="102"/>
+      <c r="S24" s="103">
         <v>37</v>
       </c>
-      <c r="T24" s="137"/>
-      <c r="U24" s="138">
+      <c r="T24" s="103"/>
+      <c r="U24" s="104">
         <f t="shared" si="0"/>
         <v>194</v>
       </c>
-      <c r="V24" s="138"/>
-      <c r="W24" s="147"/>
-      <c r="X24" s="120"/>
-    </row>
-    <row r="25" spans="2:35" s="111" customFormat="1">
-      <c r="B25" s="119"/>
-      <c r="E25" s="142"/>
-      <c r="F25" s="142"/>
-      <c r="G25" s="142"/>
-      <c r="H25" s="142"/>
-      <c r="L25" s="134">
+      <c r="V24" s="104"/>
+      <c r="W24" s="113"/>
+      <c r="X24" s="87"/>
+    </row>
+    <row r="25" spans="2:35" s="79" customFormat="1">
+      <c r="B25" s="86"/>
+      <c r="E25" s="108"/>
+      <c r="F25" s="108"/>
+      <c r="G25" s="108"/>
+      <c r="H25" s="108"/>
+      <c r="L25" s="100">
         <v>14</v>
       </c>
-      <c r="M25" s="134"/>
-      <c r="N25" s="134"/>
-      <c r="O25" s="135">
+      <c r="M25" s="100"/>
+      <c r="N25" s="100"/>
+      <c r="O25" s="101">
         <v>90</v>
       </c>
-      <c r="P25" s="135"/>
-      <c r="Q25" s="136">
+      <c r="P25" s="101"/>
+      <c r="Q25" s="102">
         <v>89</v>
       </c>
-      <c r="R25" s="136"/>
-      <c r="S25" s="137">
+      <c r="R25" s="102"/>
+      <c r="S25" s="103">
         <v>21</v>
       </c>
-      <c r="T25" s="137"/>
-      <c r="U25" s="138">
+      <c r="T25" s="103"/>
+      <c r="U25" s="104">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="V25" s="138"/>
-      <c r="W25" s="147"/>
-      <c r="X25" s="120"/>
-    </row>
-    <row r="26" spans="2:35" s="111" customFormat="1">
-      <c r="B26" s="119"/>
-      <c r="E26" s="142"/>
-      <c r="F26" s="142"/>
-      <c r="G26" s="142"/>
-      <c r="H26" s="142"/>
-      <c r="L26" s="140">
+      <c r="V25" s="104"/>
+      <c r="W25" s="113"/>
+      <c r="X25" s="87"/>
+    </row>
+    <row r="26" spans="2:35" s="79" customFormat="1">
+      <c r="B26" s="86"/>
+      <c r="E26" s="108"/>
+      <c r="F26" s="108"/>
+      <c r="G26" s="108"/>
+      <c r="H26" s="108"/>
+      <c r="L26" s="106">
         <v>15</v>
       </c>
-      <c r="M26" s="140"/>
-      <c r="N26" s="140"/>
-      <c r="O26" s="135">
+      <c r="M26" s="106"/>
+      <c r="N26" s="106"/>
+      <c r="O26" s="101">
         <v>96</v>
       </c>
-      <c r="P26" s="135"/>
-      <c r="Q26" s="136">
+      <c r="P26" s="101"/>
+      <c r="Q26" s="102">
         <v>98</v>
       </c>
-      <c r="R26" s="136"/>
-      <c r="S26" s="137">
+      <c r="R26" s="102"/>
+      <c r="S26" s="103">
         <v>23</v>
       </c>
-      <c r="T26" s="137"/>
-      <c r="U26" s="138">
+      <c r="T26" s="103"/>
+      <c r="U26" s="104">
         <f t="shared" si="0"/>
         <v>217</v>
       </c>
-      <c r="V26" s="138"/>
-      <c r="W26" s="147"/>
-      <c r="X26" s="120"/>
-      <c r="AB26" s="148"/>
-    </row>
-    <row r="27" spans="2:35" s="111" customFormat="1">
-      <c r="B27" s="119"/>
-      <c r="D27" s="149"/>
-      <c r="E27" s="97"/>
-      <c r="L27" s="134">
+      <c r="V26" s="104"/>
+      <c r="W26" s="113"/>
+      <c r="X26" s="87"/>
+      <c r="AB26" s="114"/>
+    </row>
+    <row r="27" spans="2:35" s="79" customFormat="1">
+      <c r="B27" s="86"/>
+      <c r="D27" s="115"/>
+      <c r="E27" s="65"/>
+      <c r="L27" s="100">
         <v>16</v>
       </c>
-      <c r="M27" s="134"/>
-      <c r="N27" s="134"/>
-      <c r="O27" s="135">
+      <c r="M27" s="100"/>
+      <c r="N27" s="100"/>
+      <c r="O27" s="101">
         <v>86</v>
       </c>
-      <c r="P27" s="135"/>
-      <c r="Q27" s="136">
+      <c r="P27" s="101"/>
+      <c r="Q27" s="102">
         <v>87</v>
       </c>
-      <c r="R27" s="136"/>
-      <c r="S27" s="137">
+      <c r="R27" s="102"/>
+      <c r="S27" s="103">
         <v>21</v>
       </c>
-      <c r="T27" s="137"/>
-      <c r="U27" s="138">
+      <c r="T27" s="103"/>
+      <c r="U27" s="104">
         <f t="shared" si="0"/>
         <v>194</v>
       </c>
-      <c r="V27" s="138"/>
-      <c r="W27" s="147"/>
-      <c r="X27" s="120"/>
-      <c r="AB27" s="148"/>
-    </row>
-    <row r="28" spans="2:35" s="111" customFormat="1">
-      <c r="B28" s="119"/>
-      <c r="D28" s="149"/>
-      <c r="E28" s="97"/>
-      <c r="L28" s="145">
+      <c r="V27" s="104"/>
+      <c r="W27" s="113"/>
+      <c r="X27" s="87"/>
+      <c r="AB27" s="114"/>
+    </row>
+    <row r="28" spans="2:35" s="79" customFormat="1">
+      <c r="B28" s="86"/>
+      <c r="D28" s="115"/>
+      <c r="E28" s="65"/>
+      <c r="L28" s="111">
         <v>17</v>
       </c>
-      <c r="M28" s="145"/>
-      <c r="N28" s="145"/>
-      <c r="O28" s="135">
+      <c r="M28" s="111"/>
+      <c r="N28" s="111"/>
+      <c r="O28" s="101">
         <v>84</v>
       </c>
-      <c r="P28" s="135"/>
-      <c r="Q28" s="136">
+      <c r="P28" s="101"/>
+      <c r="Q28" s="102">
         <v>68</v>
       </c>
-      <c r="R28" s="136"/>
-      <c r="S28" s="137">
+      <c r="R28" s="102"/>
+      <c r="S28" s="103">
         <v>23</v>
       </c>
-      <c r="T28" s="137"/>
-      <c r="U28" s="138">
+      <c r="T28" s="103"/>
+      <c r="U28" s="104">
         <f t="shared" si="0"/>
         <v>175</v>
       </c>
-      <c r="V28" s="138"/>
-      <c r="W28" s="147"/>
-      <c r="X28" s="120"/>
-      <c r="AB28" s="148"/>
-    </row>
-    <row r="29" spans="2:35" s="111" customFormat="1">
-      <c r="B29" s="119"/>
-      <c r="D29" s="124"/>
-      <c r="E29" s="150"/>
-      <c r="F29" s="150"/>
-      <c r="G29" s="150"/>
-      <c r="H29" s="150"/>
-      <c r="K29" s="124"/>
-      <c r="L29" s="145">
+      <c r="V28" s="104"/>
+      <c r="W28" s="113"/>
+      <c r="X28" s="87"/>
+      <c r="AB28" s="114"/>
+    </row>
+    <row r="29" spans="2:35" s="79" customFormat="1">
+      <c r="B29" s="86"/>
+      <c r="D29" s="91"/>
+      <c r="E29" s="116"/>
+      <c r="F29" s="116"/>
+      <c r="G29" s="116"/>
+      <c r="H29" s="116"/>
+      <c r="K29" s="91"/>
+      <c r="L29" s="111">
         <v>18</v>
       </c>
-      <c r="M29" s="145"/>
-      <c r="N29" s="145"/>
-      <c r="O29" s="135">
+      <c r="M29" s="111"/>
+      <c r="N29" s="111"/>
+      <c r="O29" s="101">
         <v>35</v>
       </c>
-      <c r="P29" s="135"/>
-      <c r="Q29" s="136">
+      <c r="P29" s="101"/>
+      <c r="Q29" s="102">
         <v>78</v>
       </c>
-      <c r="R29" s="136"/>
-      <c r="S29" s="137">
+      <c r="R29" s="102"/>
+      <c r="S29" s="103">
         <v>89</v>
       </c>
-      <c r="T29" s="137"/>
-      <c r="U29" s="138">
+      <c r="T29" s="103"/>
+      <c r="U29" s="104">
         <f t="shared" si="0"/>
         <v>202</v>
       </c>
-      <c r="V29" s="138"/>
-      <c r="W29" s="147"/>
-      <c r="X29" s="120"/>
-    </row>
-    <row r="30" spans="2:35" s="111" customFormat="1">
-      <c r="B30" s="119"/>
-      <c r="L30" s="151" t="s">
+      <c r="V29" s="104"/>
+      <c r="W29" s="113"/>
+      <c r="X29" s="87"/>
+    </row>
+    <row r="30" spans="2:35" s="79" customFormat="1">
+      <c r="B30" s="86"/>
+      <c r="L30" s="117" t="s">
         <v>87</v>
       </c>
-      <c r="M30" s="152"/>
-      <c r="N30" s="152"/>
-      <c r="O30" s="153">
+      <c r="M30" s="118"/>
+      <c r="N30" s="118"/>
+      <c r="O30" s="119">
         <f>SUM(O12:O29)</f>
         <v>1039</v>
       </c>
-      <c r="P30" s="153"/>
-      <c r="Q30" s="153">
+      <c r="P30" s="119"/>
+      <c r="Q30" s="119">
         <f>SUM(Q12:Q29)</f>
         <v>1101</v>
       </c>
-      <c r="R30" s="153"/>
-      <c r="S30" s="153">
+      <c r="R30" s="119"/>
+      <c r="S30" s="119">
         <f>SUM(S12:S29)</f>
         <v>774</v>
       </c>
-      <c r="T30" s="153"/>
-      <c r="U30" s="154">
+      <c r="T30" s="119"/>
+      <c r="U30" s="120">
         <f>SUM(U12:U29)</f>
         <v>2914</v>
       </c>
-      <c r="V30" s="154"/>
-      <c r="W30" s="147"/>
-      <c r="X30" s="120"/>
+      <c r="V30" s="120"/>
+      <c r="W30" s="113"/>
+      <c r="X30" s="87"/>
     </row>
     <row r="31" spans="2:35">
-      <c r="B31" s="109"/>
-      <c r="C31" s="155" t="s">
+      <c r="B31" s="77"/>
+      <c r="C31" s="121" t="s">
         <v>88</v>
       </c>
-      <c r="D31" s="112"/>
-      <c r="E31" s="128"/>
-      <c r="F31" s="128"/>
-      <c r="G31" s="128"/>
-      <c r="H31" s="128"/>
-      <c r="I31" s="112"/>
-      <c r="J31" s="112"/>
-      <c r="K31" s="112"/>
-      <c r="L31" s="112"/>
-      <c r="M31" s="112"/>
-      <c r="N31" s="112"/>
-      <c r="O31" s="112"/>
-      <c r="P31" s="112"/>
-      <c r="Q31" s="112"/>
-      <c r="R31" s="112"/>
-      <c r="S31" s="112"/>
-      <c r="W31" s="147"/>
-      <c r="X31" s="120"/>
-      <c r="AA31" s="111"/>
-      <c r="AB31" s="111"/>
-      <c r="AC31" s="111"/>
-      <c r="AD31" s="111"/>
-      <c r="AE31" s="111"/>
-      <c r="AF31" s="111"/>
-      <c r="AG31" s="111"/>
-      <c r="AH31" s="111"/>
-      <c r="AI31" s="111"/>
+      <c r="D31" s="80"/>
+      <c r="E31" s="95"/>
+      <c r="F31" s="95"/>
+      <c r="G31" s="95"/>
+      <c r="H31" s="95"/>
+      <c r="I31" s="80"/>
+      <c r="J31" s="80"/>
+      <c r="K31" s="80"/>
+      <c r="L31" s="80"/>
+      <c r="M31" s="80"/>
+      <c r="N31" s="80"/>
+      <c r="O31" s="80"/>
+      <c r="P31" s="80"/>
+      <c r="Q31" s="80"/>
+      <c r="R31" s="80"/>
+      <c r="S31" s="80"/>
+      <c r="W31" s="113"/>
+      <c r="X31" s="87"/>
+      <c r="AA31" s="79"/>
+      <c r="AB31" s="79"/>
+      <c r="AC31" s="79"/>
+      <c r="AD31" s="79"/>
+      <c r="AE31" s="79"/>
+      <c r="AF31" s="79"/>
+      <c r="AG31" s="79"/>
+      <c r="AH31" s="79"/>
+      <c r="AI31" s="79"/>
     </row>
     <row r="32" spans="2:35">
-      <c r="B32" s="156"/>
-      <c r="C32" s="157" t="s">
+      <c r="B32" s="122"/>
+      <c r="C32" s="123" t="s">
         <v>89</v>
       </c>
-      <c r="D32" s="112"/>
-      <c r="E32" s="112"/>
-      <c r="F32" s="112"/>
-      <c r="G32" s="150"/>
-      <c r="H32" s="150"/>
-      <c r="I32" s="112"/>
-      <c r="J32" s="112"/>
-      <c r="K32" s="112"/>
-      <c r="L32" s="130" t="s">
+      <c r="D32" s="80"/>
+      <c r="E32" s="80"/>
+      <c r="F32" s="80"/>
+      <c r="G32" s="116"/>
+      <c r="H32" s="116"/>
+      <c r="I32" s="80"/>
+      <c r="J32" s="80"/>
+      <c r="K32" s="80"/>
+      <c r="L32" s="97" t="s">
         <v>90</v>
       </c>
-      <c r="M32" s="158"/>
-      <c r="N32" s="158"/>
-      <c r="O32" s="158"/>
-      <c r="P32" s="159"/>
-      <c r="Q32" s="159"/>
-      <c r="R32" s="159"/>
-      <c r="S32" s="159"/>
-      <c r="T32" s="159"/>
-      <c r="U32" s="159"/>
-      <c r="V32" s="159"/>
-      <c r="W32" s="147"/>
-      <c r="X32" s="120"/>
-      <c r="AA32" s="111"/>
-      <c r="AB32" s="111"/>
-      <c r="AC32" s="111"/>
-      <c r="AD32" s="111"/>
-      <c r="AE32" s="111"/>
-      <c r="AF32" s="111"/>
-      <c r="AG32" s="111"/>
-      <c r="AH32" s="111"/>
-      <c r="AI32" s="111"/>
+      <c r="M32" s="124"/>
+      <c r="N32" s="124"/>
+      <c r="O32" s="124"/>
+      <c r="P32" s="125"/>
+      <c r="Q32" s="125"/>
+      <c r="R32" s="125"/>
+      <c r="S32" s="125"/>
+      <c r="T32" s="125"/>
+      <c r="U32" s="125"/>
+      <c r="V32" s="125"/>
+      <c r="W32" s="113"/>
+      <c r="X32" s="87"/>
+      <c r="AA32" s="79"/>
+      <c r="AB32" s="79"/>
+      <c r="AC32" s="79"/>
+      <c r="AD32" s="79"/>
+      <c r="AE32" s="79"/>
+      <c r="AF32" s="79"/>
+      <c r="AG32" s="79"/>
+      <c r="AH32" s="79"/>
+      <c r="AI32" s="79"/>
     </row>
     <row r="33" spans="1:35">
-      <c r="B33" s="156"/>
-      <c r="C33" s="112"/>
-      <c r="D33" s="112"/>
-      <c r="E33" s="112"/>
-      <c r="F33" s="112"/>
-      <c r="G33" s="112"/>
-      <c r="H33" s="112"/>
-      <c r="I33" s="112"/>
-      <c r="J33" s="112"/>
-      <c r="K33" s="112"/>
-      <c r="L33" s="160"/>
-      <c r="M33" s="161"/>
-      <c r="N33" s="161"/>
-      <c r="O33" s="161"/>
-      <c r="P33" s="162"/>
-      <c r="Q33" s="162"/>
-      <c r="R33" s="162"/>
-      <c r="S33" s="162"/>
-      <c r="T33" s="162"/>
-      <c r="U33" s="162"/>
-      <c r="V33" s="162"/>
-      <c r="W33" s="144"/>
-      <c r="X33" s="120"/>
-      <c r="AA33" s="111"/>
-      <c r="AB33" s="111"/>
-      <c r="AC33" s="111"/>
-      <c r="AD33" s="111"/>
-      <c r="AE33" s="111"/>
-      <c r="AF33" s="111"/>
-      <c r="AG33" s="111"/>
-      <c r="AH33" s="111"/>
-      <c r="AI33" s="111"/>
+      <c r="B33" s="122"/>
+      <c r="C33" s="80"/>
+      <c r="D33" s="80"/>
+      <c r="E33" s="80"/>
+      <c r="F33" s="80"/>
+      <c r="G33" s="80"/>
+      <c r="H33" s="80"/>
+      <c r="I33" s="80"/>
+      <c r="J33" s="80"/>
+      <c r="K33" s="80"/>
+      <c r="L33" s="126"/>
+      <c r="M33" s="127"/>
+      <c r="N33" s="127"/>
+      <c r="O33" s="127"/>
+      <c r="P33" s="128"/>
+      <c r="Q33" s="128"/>
+      <c r="R33" s="128"/>
+      <c r="S33" s="128"/>
+      <c r="T33" s="128"/>
+      <c r="U33" s="128"/>
+      <c r="V33" s="128"/>
+      <c r="W33" s="110"/>
+      <c r="X33" s="87"/>
+      <c r="AA33" s="79"/>
+      <c r="AB33" s="79"/>
+      <c r="AC33" s="79"/>
+      <c r="AD33" s="79"/>
+      <c r="AE33" s="79"/>
+      <c r="AF33" s="79"/>
+      <c r="AG33" s="79"/>
+      <c r="AH33" s="79"/>
+      <c r="AI33" s="79"/>
     </row>
     <row r="34" spans="1:35">
-      <c r="B34" s="126"/>
-      <c r="C34" s="155" t="s">
+      <c r="B34" s="93"/>
+      <c r="C34" s="121" t="s">
         <v>91</v>
       </c>
-      <c r="D34" s="112"/>
-      <c r="E34" s="128"/>
-      <c r="F34" s="128"/>
-      <c r="G34" s="128"/>
-      <c r="H34" s="128"/>
-      <c r="I34" s="112"/>
-      <c r="J34" s="112"/>
-      <c r="K34" s="112"/>
-      <c r="L34" s="160"/>
-      <c r="M34" s="161"/>
-      <c r="N34" s="161"/>
-      <c r="O34" s="161"/>
-      <c r="P34" s="162"/>
-      <c r="Q34" s="162"/>
-      <c r="R34" s="162"/>
-      <c r="S34" s="162"/>
-      <c r="T34" s="162"/>
-      <c r="U34" s="162"/>
-      <c r="V34" s="162"/>
-      <c r="W34" s="131"/>
-      <c r="X34" s="120"/>
-      <c r="AA34" s="111"/>
-      <c r="AB34" s="148"/>
-      <c r="AC34" s="111"/>
-      <c r="AD34" s="111"/>
-      <c r="AE34" s="111"/>
-      <c r="AF34" s="111"/>
-      <c r="AG34" s="111"/>
-      <c r="AH34" s="111"/>
-      <c r="AI34" s="111"/>
+      <c r="D34" s="80"/>
+      <c r="E34" s="95"/>
+      <c r="F34" s="95"/>
+      <c r="G34" s="95"/>
+      <c r="H34" s="95"/>
+      <c r="I34" s="80"/>
+      <c r="J34" s="80"/>
+      <c r="K34" s="80"/>
+      <c r="L34" s="126"/>
+      <c r="M34" s="127"/>
+      <c r="N34" s="127"/>
+      <c r="O34" s="127"/>
+      <c r="P34" s="128"/>
+      <c r="Q34" s="128"/>
+      <c r="R34" s="128"/>
+      <c r="S34" s="128"/>
+      <c r="T34" s="128"/>
+      <c r="U34" s="128"/>
+      <c r="V34" s="128"/>
+      <c r="W34" s="98"/>
+      <c r="X34" s="87"/>
+      <c r="AA34" s="79"/>
+      <c r="AB34" s="114"/>
+      <c r="AC34" s="79"/>
+      <c r="AD34" s="79"/>
+      <c r="AE34" s="79"/>
+      <c r="AF34" s="79"/>
+      <c r="AG34" s="79"/>
+      <c r="AH34" s="79"/>
+      <c r="AI34" s="79"/>
     </row>
     <row r="35" spans="1:35">
-      <c r="B35" s="126"/>
-      <c r="C35" s="157" t="s">
+      <c r="B35" s="93"/>
+      <c r="C35" s="123" t="s">
         <v>89</v>
       </c>
-      <c r="G35" s="112"/>
-      <c r="H35" s="112"/>
-      <c r="I35" s="112"/>
-      <c r="J35" s="112"/>
-      <c r="K35" s="112"/>
-      <c r="L35" s="160"/>
-      <c r="M35" s="161"/>
-      <c r="N35" s="161"/>
-      <c r="O35" s="161"/>
-      <c r="P35" s="162"/>
-      <c r="Q35" s="162"/>
-      <c r="R35" s="162"/>
-      <c r="S35" s="162"/>
-      <c r="T35" s="162"/>
-      <c r="U35" s="162"/>
-      <c r="V35" s="162"/>
-      <c r="W35" s="111"/>
-      <c r="X35" s="120"/>
-      <c r="AA35" s="111"/>
-      <c r="AB35" s="111"/>
-      <c r="AC35" s="111"/>
-      <c r="AD35" s="111"/>
-      <c r="AE35" s="111"/>
-      <c r="AF35" s="111"/>
-      <c r="AG35" s="111"/>
-      <c r="AH35" s="111"/>
-      <c r="AI35" s="111"/>
+      <c r="G35" s="80"/>
+      <c r="H35" s="80"/>
+      <c r="I35" s="80"/>
+      <c r="J35" s="80"/>
+      <c r="K35" s="80"/>
+      <c r="L35" s="126"/>
+      <c r="M35" s="127"/>
+      <c r="N35" s="127"/>
+      <c r="O35" s="127"/>
+      <c r="P35" s="128"/>
+      <c r="Q35" s="128"/>
+      <c r="R35" s="128"/>
+      <c r="S35" s="128"/>
+      <c r="T35" s="128"/>
+      <c r="U35" s="128"/>
+      <c r="V35" s="128"/>
+      <c r="W35" s="79"/>
+      <c r="X35" s="87"/>
+      <c r="AA35" s="79"/>
+      <c r="AB35" s="79"/>
+      <c r="AC35" s="79"/>
+      <c r="AD35" s="79"/>
+      <c r="AE35" s="79"/>
+      <c r="AF35" s="79"/>
+      <c r="AG35" s="79"/>
+      <c r="AH35" s="79"/>
+      <c r="AI35" s="79"/>
     </row>
     <row r="36" spans="1:35" ht="5.25" customHeight="1">
-      <c r="B36" s="163"/>
-      <c r="C36" s="164"/>
-      <c r="D36" s="164"/>
-      <c r="E36" s="164"/>
-      <c r="F36" s="164"/>
-      <c r="G36" s="164"/>
-      <c r="H36" s="164"/>
-      <c r="I36" s="164"/>
-      <c r="J36" s="164"/>
-      <c r="K36" s="164"/>
-      <c r="M36" s="112"/>
-      <c r="N36" s="112"/>
-      <c r="O36" s="112"/>
-      <c r="P36" s="112"/>
-      <c r="Q36" s="112"/>
-      <c r="R36" s="112"/>
-      <c r="S36" s="112"/>
-      <c r="W36" s="164"/>
-      <c r="X36" s="165"/>
-      <c r="AA36" s="111"/>
-      <c r="AB36" s="111"/>
-      <c r="AC36" s="111"/>
-      <c r="AD36" s="111"/>
-      <c r="AE36" s="111"/>
-      <c r="AF36" s="111"/>
-      <c r="AG36" s="111"/>
-      <c r="AH36" s="111"/>
-      <c r="AI36" s="111"/>
+      <c r="B36" s="129"/>
+      <c r="C36" s="130"/>
+      <c r="D36" s="130"/>
+      <c r="E36" s="130"/>
+      <c r="F36" s="130"/>
+      <c r="G36" s="130"/>
+      <c r="H36" s="130"/>
+      <c r="I36" s="130"/>
+      <c r="J36" s="130"/>
+      <c r="K36" s="130"/>
+      <c r="M36" s="80"/>
+      <c r="N36" s="80"/>
+      <c r="O36" s="80"/>
+      <c r="P36" s="80"/>
+      <c r="Q36" s="80"/>
+      <c r="R36" s="80"/>
+      <c r="S36" s="80"/>
+      <c r="W36" s="130"/>
+      <c r="X36" s="131"/>
+      <c r="AA36" s="79"/>
+      <c r="AB36" s="79"/>
+      <c r="AC36" s="79"/>
+      <c r="AD36" s="79"/>
+      <c r="AE36" s="79"/>
+      <c r="AF36" s="79"/>
+      <c r="AG36" s="79"/>
+      <c r="AH36" s="79"/>
+      <c r="AI36" s="79"/>
     </row>
     <row r="37" spans="1:35" ht="9" customHeight="1">
-      <c r="B37" s="112"/>
-      <c r="C37" s="112"/>
-      <c r="D37" s="112"/>
-      <c r="E37" s="112"/>
-      <c r="F37" s="112"/>
-      <c r="G37" s="112"/>
-      <c r="H37" s="112"/>
-      <c r="I37" s="112"/>
-      <c r="J37" s="112"/>
-      <c r="K37" s="112"/>
-      <c r="L37" s="106"/>
-      <c r="M37" s="106"/>
-      <c r="N37" s="106"/>
-      <c r="O37" s="106"/>
-      <c r="P37" s="106"/>
-      <c r="Q37" s="106"/>
-      <c r="R37" s="106"/>
-      <c r="S37" s="106"/>
-      <c r="T37" s="106"/>
-      <c r="U37" s="106"/>
-      <c r="V37" s="106"/>
-      <c r="AA37" s="111"/>
-      <c r="AB37" s="111"/>
-      <c r="AC37" s="111"/>
-      <c r="AD37" s="111"/>
-      <c r="AE37" s="111"/>
-      <c r="AF37" s="111"/>
-      <c r="AG37" s="111"/>
-      <c r="AH37" s="111"/>
-      <c r="AI37" s="111"/>
+      <c r="B37" s="80"/>
+      <c r="C37" s="80"/>
+      <c r="D37" s="80"/>
+      <c r="E37" s="80"/>
+      <c r="F37" s="80"/>
+      <c r="G37" s="80"/>
+      <c r="H37" s="80"/>
+      <c r="I37" s="80"/>
+      <c r="J37" s="80"/>
+      <c r="K37" s="80"/>
+      <c r="L37" s="74"/>
+      <c r="M37" s="74"/>
+      <c r="N37" s="74"/>
+      <c r="O37" s="74"/>
+      <c r="P37" s="74"/>
+      <c r="Q37" s="74"/>
+      <c r="R37" s="74"/>
+      <c r="S37" s="74"/>
+      <c r="T37" s="74"/>
+      <c r="U37" s="74"/>
+      <c r="V37" s="74"/>
+      <c r="AA37" s="79"/>
+      <c r="AB37" s="79"/>
+      <c r="AC37" s="79"/>
+      <c r="AD37" s="79"/>
+      <c r="AE37" s="79"/>
+      <c r="AF37" s="79"/>
+      <c r="AG37" s="79"/>
+      <c r="AH37" s="79"/>
+      <c r="AI37" s="79"/>
     </row>
     <row r="38" spans="1:35">
-      <c r="B38" s="112"/>
-      <c r="I38" s="112"/>
-      <c r="J38" s="112"/>
-      <c r="K38" s="112"/>
-      <c r="L38" s="112"/>
-      <c r="M38" s="112"/>
-      <c r="N38" s="112"/>
-      <c r="O38" s="112"/>
-      <c r="P38" s="112"/>
-      <c r="AA38" s="111"/>
-      <c r="AB38" s="111"/>
-      <c r="AC38" s="111"/>
-      <c r="AD38" s="111"/>
-      <c r="AE38" s="111"/>
-      <c r="AF38" s="111"/>
-      <c r="AG38" s="111"/>
-      <c r="AH38" s="111"/>
-      <c r="AI38" s="111"/>
+      <c r="B38" s="80"/>
+      <c r="I38" s="80"/>
+      <c r="J38" s="80"/>
+      <c r="K38" s="80"/>
+      <c r="L38" s="80"/>
+      <c r="M38" s="80"/>
+      <c r="N38" s="80"/>
+      <c r="O38" s="80"/>
+      <c r="P38" s="80"/>
+      <c r="AA38" s="79"/>
+      <c r="AB38" s="79"/>
+      <c r="AC38" s="79"/>
+      <c r="AD38" s="79"/>
+      <c r="AE38" s="79"/>
+      <c r="AF38" s="79"/>
+      <c r="AG38" s="79"/>
+      <c r="AH38" s="79"/>
+      <c r="AI38" s="79"/>
     </row>
     <row r="39" spans="1:35">
-      <c r="B39" s="112"/>
-      <c r="I39" s="112"/>
-      <c r="J39" s="112"/>
-      <c r="K39" s="112"/>
-      <c r="AA39" s="111"/>
-      <c r="AB39" s="111"/>
-      <c r="AC39" s="111"/>
-      <c r="AD39" s="111"/>
-      <c r="AE39" s="111"/>
-      <c r="AF39" s="111"/>
-      <c r="AG39" s="111"/>
-      <c r="AH39" s="111"/>
-      <c r="AI39" s="111"/>
+      <c r="B39" s="80"/>
+      <c r="I39" s="80"/>
+      <c r="J39" s="80"/>
+      <c r="K39" s="80"/>
+      <c r="AA39" s="79"/>
+      <c r="AB39" s="79"/>
+      <c r="AC39" s="79"/>
+      <c r="AD39" s="79"/>
+      <c r="AE39" s="79"/>
+      <c r="AF39" s="79"/>
+      <c r="AG39" s="79"/>
+      <c r="AH39" s="79"/>
+      <c r="AI39" s="79"/>
     </row>
     <row r="40" spans="1:35">
-      <c r="B40" s="112"/>
-      <c r="I40" s="112"/>
-      <c r="J40" s="112"/>
-      <c r="K40" s="112"/>
-      <c r="AA40" s="111"/>
-      <c r="AB40" s="111"/>
-      <c r="AC40" s="111"/>
-      <c r="AD40" s="111"/>
-      <c r="AE40" s="111"/>
-      <c r="AF40" s="111"/>
-      <c r="AG40" s="111"/>
-      <c r="AH40" s="111"/>
-      <c r="AI40" s="111"/>
+      <c r="B40" s="80"/>
+      <c r="I40" s="80"/>
+      <c r="J40" s="80"/>
+      <c r="K40" s="80"/>
+      <c r="AA40" s="79"/>
+      <c r="AB40" s="79"/>
+      <c r="AC40" s="79"/>
+      <c r="AD40" s="79"/>
+      <c r="AE40" s="79"/>
+      <c r="AF40" s="79"/>
+      <c r="AG40" s="79"/>
+      <c r="AH40" s="79"/>
+      <c r="AI40" s="79"/>
     </row>
     <row r="41" spans="1:35">
-      <c r="B41" s="112"/>
-      <c r="I41" s="112"/>
-      <c r="J41" s="112"/>
-      <c r="K41" s="112"/>
-      <c r="AA41" s="111"/>
-      <c r="AB41" s="111"/>
-      <c r="AC41" s="111"/>
-      <c r="AD41" s="111"/>
-      <c r="AE41" s="111"/>
-      <c r="AF41" s="111"/>
-      <c r="AG41" s="111"/>
-      <c r="AH41" s="111"/>
-      <c r="AI41" s="111"/>
+      <c r="B41" s="80"/>
+      <c r="I41" s="80"/>
+      <c r="J41" s="80"/>
+      <c r="K41" s="80"/>
+      <c r="AA41" s="79"/>
+      <c r="AB41" s="79"/>
+      <c r="AC41" s="79"/>
+      <c r="AD41" s="79"/>
+      <c r="AE41" s="79"/>
+      <c r="AF41" s="79"/>
+      <c r="AG41" s="79"/>
+      <c r="AH41" s="79"/>
+      <c r="AI41" s="79"/>
     </row>
     <row r="42" spans="1:35">
-      <c r="B42" s="112"/>
-      <c r="I42" s="112"/>
-      <c r="J42" s="112"/>
-      <c r="K42" s="112"/>
-      <c r="AA42" s="111"/>
-      <c r="AB42" s="111"/>
-      <c r="AC42" s="111"/>
-      <c r="AD42" s="111"/>
-      <c r="AE42" s="111"/>
-      <c r="AF42" s="111"/>
-      <c r="AG42" s="111"/>
-      <c r="AH42" s="111"/>
-      <c r="AI42" s="111"/>
+      <c r="B42" s="80"/>
+      <c r="I42" s="80"/>
+      <c r="J42" s="80"/>
+      <c r="K42" s="80"/>
+      <c r="AA42" s="79"/>
+      <c r="AB42" s="79"/>
+      <c r="AC42" s="79"/>
+      <c r="AD42" s="79"/>
+      <c r="AE42" s="79"/>
+      <c r="AF42" s="79"/>
+      <c r="AG42" s="79"/>
+      <c r="AH42" s="79"/>
+      <c r="AI42" s="79"/>
     </row>
     <row r="43" spans="1:35">
-      <c r="B43" s="112"/>
-      <c r="C43" s="112"/>
-      <c r="D43" s="112"/>
-      <c r="E43" s="112"/>
-      <c r="F43" s="112"/>
-      <c r="G43" s="112"/>
-      <c r="H43" s="112"/>
-      <c r="I43" s="112"/>
-      <c r="J43" s="112"/>
-      <c r="K43" s="112"/>
+      <c r="B43" s="80"/>
+      <c r="C43" s="80"/>
+      <c r="D43" s="80"/>
+      <c r="E43" s="80"/>
+      <c r="F43" s="80"/>
+      <c r="G43" s="80"/>
+      <c r="H43" s="80"/>
+      <c r="I43" s="80"/>
+      <c r="J43" s="80"/>
+      <c r="K43" s="80"/>
     </row>
     <row r="44" spans="1:35" ht="7.5" customHeight="1">
-      <c r="A44" s="112"/>
-      <c r="B44" s="112"/>
-      <c r="C44" s="112"/>
-      <c r="D44" s="112"/>
-      <c r="E44" s="112"/>
-      <c r="F44" s="112"/>
-      <c r="G44" s="112"/>
-      <c r="H44" s="112"/>
-      <c r="I44" s="112"/>
-      <c r="J44" s="112"/>
-      <c r="K44" s="112"/>
+      <c r="A44" s="80"/>
+      <c r="B44" s="80"/>
+      <c r="C44" s="80"/>
+      <c r="D44" s="80"/>
+      <c r="E44" s="80"/>
+      <c r="F44" s="80"/>
+      <c r="G44" s="80"/>
+      <c r="H44" s="80"/>
+      <c r="I44" s="80"/>
+      <c r="J44" s="80"/>
+      <c r="K44" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="2">
